--- a/public/preprocessing/@Yusuf_Mansur.xlsx
+++ b/public/preprocessing/@Yusuf_Mansur.xlsx
@@ -475,10 +475,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10661</v>
+        <v>13106</v>
       </c>
       <c r="C2" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -511,10 +511,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10662</v>
+        <v>13107</v>
       </c>
       <c r="C3" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -547,10 +547,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10663</v>
+        <v>13108</v>
       </c>
       <c r="C4" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -583,10 +583,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10664</v>
+        <v>13109</v>
       </c>
       <c r="C5" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -619,10 +619,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10665</v>
+        <v>13110</v>
       </c>
       <c r="C6" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -655,10 +655,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10666</v>
+        <v>13111</v>
       </c>
       <c r="C7" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -691,10 +691,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10667</v>
+        <v>13112</v>
       </c>
       <c r="C8" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -727,10 +727,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10668</v>
+        <v>13113</v>
       </c>
       <c r="C9" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -763,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10669</v>
+        <v>13114</v>
       </c>
       <c r="C10" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -799,10 +799,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10670</v>
+        <v>13115</v>
       </c>
       <c r="C11" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -835,10 +835,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10671</v>
+        <v>13116</v>
       </c>
       <c r="C12" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -871,10 +871,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10672</v>
+        <v>13117</v>
       </c>
       <c r="C13" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10673</v>
+        <v>13118</v>
       </c>
       <c r="C14" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10674</v>
+        <v>13119</v>
       </c>
       <c r="C15" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -979,10 +979,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10675</v>
+        <v>13120</v>
       </c>
       <c r="C16" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1015,10 +1015,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10676</v>
+        <v>13121</v>
       </c>
       <c r="C17" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1051,10 +1051,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10677</v>
+        <v>13122</v>
       </c>
       <c r="C18" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1087,10 +1087,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10678</v>
+        <v>13123</v>
       </c>
       <c r="C19" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1123,10 +1123,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10679</v>
+        <v>13124</v>
       </c>
       <c r="C20" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1159,10 +1159,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10680</v>
+        <v>13125</v>
       </c>
       <c r="C21" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1195,10 +1195,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10681</v>
+        <v>13126</v>
       </c>
       <c r="C22" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1231,10 +1231,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10682</v>
+        <v>13127</v>
       </c>
       <c r="C23" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1267,10 +1267,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10683</v>
+        <v>13128</v>
       </c>
       <c r="C24" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1303,10 +1303,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10684</v>
+        <v>13129</v>
       </c>
       <c r="C25" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1339,10 +1339,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10685</v>
+        <v>13130</v>
       </c>
       <c r="C26" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10686</v>
+        <v>13131</v>
       </c>
       <c r="C27" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1411,10 +1411,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10687</v>
+        <v>13132</v>
       </c>
       <c r="C28" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1447,10 +1447,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10688</v>
+        <v>13133</v>
       </c>
       <c r="C29" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1483,10 +1483,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10689</v>
+        <v>13134</v>
       </c>
       <c r="C30" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1519,10 +1519,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10690</v>
+        <v>13135</v>
       </c>
       <c r="C31" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1555,10 +1555,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>10691</v>
+        <v>13136</v>
       </c>
       <c r="C32" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1591,10 +1591,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10692</v>
+        <v>13137</v>
       </c>
       <c r="C33" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1627,10 +1627,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10693</v>
+        <v>13138</v>
       </c>
       <c r="C34" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1663,10 +1663,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10694</v>
+        <v>13139</v>
       </c>
       <c r="C35" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1699,10 +1699,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10695</v>
+        <v>13140</v>
       </c>
       <c r="C36" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10696</v>
+        <v>13141</v>
       </c>
       <c r="C37" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1771,10 +1771,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10697</v>
+        <v>13142</v>
       </c>
       <c r="C38" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1807,10 +1807,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10698</v>
+        <v>13143</v>
       </c>
       <c r="C39" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1843,10 +1843,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10699</v>
+        <v>13144</v>
       </c>
       <c r="C40" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1879,10 +1879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10700</v>
+        <v>13145</v>
       </c>
       <c r="C41" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1915,10 +1915,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10701</v>
+        <v>13146</v>
       </c>
       <c r="C42" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1951,10 +1951,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10702</v>
+        <v>13147</v>
       </c>
       <c r="C43" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1987,10 +1987,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10703</v>
+        <v>13148</v>
       </c>
       <c r="C44" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2023,10 +2023,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10704</v>
+        <v>13149</v>
       </c>
       <c r="C45" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2059,10 +2059,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10705</v>
+        <v>13150</v>
       </c>
       <c r="C46" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2095,10 +2095,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10706</v>
+        <v>13151</v>
       </c>
       <c r="C47" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>10707</v>
+        <v>13152</v>
       </c>
       <c r="C48" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2167,10 +2167,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10708</v>
+        <v>13153</v>
       </c>
       <c r="C49" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2203,10 +2203,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10709</v>
+        <v>13154</v>
       </c>
       <c r="C50" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2239,10 +2239,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10710</v>
+        <v>13155</v>
       </c>
       <c r="C51" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2275,10 +2275,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>10711</v>
+        <v>13156</v>
       </c>
       <c r="C52" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2311,10 +2311,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>10712</v>
+        <v>13157</v>
       </c>
       <c r="C53" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2347,10 +2347,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>10713</v>
+        <v>13158</v>
       </c>
       <c r="C54" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2383,10 +2383,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>10714</v>
+        <v>13159</v>
       </c>
       <c r="C55" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2419,10 +2419,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>10715</v>
+        <v>13160</v>
       </c>
       <c r="C56" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>10716</v>
+        <v>13161</v>
       </c>
       <c r="C57" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2491,10 +2491,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10717</v>
+        <v>13162</v>
       </c>
       <c r="C58" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2527,10 +2527,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10718</v>
+        <v>13163</v>
       </c>
       <c r="C59" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2563,10 +2563,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>10719</v>
+        <v>13164</v>
       </c>
       <c r="C60" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2599,10 +2599,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10720</v>
+        <v>13165</v>
       </c>
       <c r="C61" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2635,10 +2635,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>10721</v>
+        <v>13166</v>
       </c>
       <c r="C62" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2671,10 +2671,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10722</v>
+        <v>13167</v>
       </c>
       <c r="C63" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2707,10 +2707,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10723</v>
+        <v>13168</v>
       </c>
       <c r="C64" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2743,10 +2743,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>10724</v>
+        <v>13169</v>
       </c>
       <c r="C65" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2779,10 +2779,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>10725</v>
+        <v>13170</v>
       </c>
       <c r="C66" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2815,10 +2815,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10726</v>
+        <v>13171</v>
       </c>
       <c r="C67" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2851,10 +2851,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>10727</v>
+        <v>13172</v>
       </c>
       <c r="C68" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2887,10 +2887,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10728</v>
+        <v>13173</v>
       </c>
       <c r="C69" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2923,10 +2923,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10729</v>
+        <v>13174</v>
       </c>
       <c r="C70" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2959,10 +2959,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10730</v>
+        <v>13175</v>
       </c>
       <c r="C71" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2995,10 +2995,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10731</v>
+        <v>13176</v>
       </c>
       <c r="C72" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3031,10 +3031,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10732</v>
+        <v>13177</v>
       </c>
       <c r="C73" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3067,10 +3067,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10733</v>
+        <v>13178</v>
       </c>
       <c r="C74" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3103,10 +3103,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10734</v>
+        <v>13179</v>
       </c>
       <c r="C75" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3139,10 +3139,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10735</v>
+        <v>13180</v>
       </c>
       <c r="C76" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3175,10 +3175,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10736</v>
+        <v>13181</v>
       </c>
       <c r="C77" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3211,10 +3211,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10737</v>
+        <v>13182</v>
       </c>
       <c r="C78" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3247,10 +3247,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10738</v>
+        <v>13183</v>
       </c>
       <c r="C79" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3283,10 +3283,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>10739</v>
+        <v>13184</v>
       </c>
       <c r="C80" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3319,10 +3319,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>10740</v>
+        <v>13185</v>
       </c>
       <c r="C81" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3355,10 +3355,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>10741</v>
+        <v>13186</v>
       </c>
       <c r="C82" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3391,10 +3391,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10742</v>
+        <v>13187</v>
       </c>
       <c r="C83" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3427,10 +3427,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10743</v>
+        <v>13188</v>
       </c>
       <c r="C84" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3463,10 +3463,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>10744</v>
+        <v>13189</v>
       </c>
       <c r="C85" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3499,10 +3499,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10745</v>
+        <v>13190</v>
       </c>
       <c r="C86" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3535,10 +3535,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10746</v>
+        <v>13191</v>
       </c>
       <c r="C87" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3571,10 +3571,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>10747</v>
+        <v>13192</v>
       </c>
       <c r="C88" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3607,10 +3607,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10748</v>
+        <v>13193</v>
       </c>
       <c r="C89" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3643,10 +3643,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10749</v>
+        <v>13194</v>
       </c>
       <c r="C90" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3679,10 +3679,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10750</v>
+        <v>13195</v>
       </c>
       <c r="C91" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3715,10 +3715,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>10751</v>
+        <v>13196</v>
       </c>
       <c r="C92" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3751,10 +3751,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>10752</v>
+        <v>13197</v>
       </c>
       <c r="C93" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3787,10 +3787,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10753</v>
+        <v>13198</v>
       </c>
       <c r="C94" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3823,10 +3823,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>10754</v>
+        <v>13199</v>
       </c>
       <c r="C95" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3859,10 +3859,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>10755</v>
+        <v>13200</v>
       </c>
       <c r="C96" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3895,10 +3895,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>10756</v>
+        <v>13201</v>
       </c>
       <c r="C97" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3931,10 +3931,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>10757</v>
+        <v>13202</v>
       </c>
       <c r="C98" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3967,10 +3967,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>10758</v>
+        <v>13203</v>
       </c>
       <c r="C99" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -4003,10 +4003,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>10759</v>
+        <v>13204</v>
       </c>
       <c r="C100" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4039,10 +4039,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>10760</v>
+        <v>13205</v>
       </c>
       <c r="C101" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/public/preprocessing/@Yusuf_Mansur.xlsx
+++ b/public/preprocessing/@Yusuf_Mansur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13106</v>
+        <v>28711</v>
       </c>
       <c r="C2" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ayo zikir pagi sore isinya tolak bala keselamatan perlindungan liat nih kecelakaan di tol kayak di final</t>
+          <t>weekend with quran daqu schoolcimanggis</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['ayo', 'zikir', 'pagi', 'sore', 'isinya', 'tolak', 'bala', 'keselamatan', 'perlindungan', 'liat', 'nih', 'kecelakaan', 'di', 'tol', 'kayak', 'di', 'final']</t>
+          <t>['weekend', 'with', 'quran', 'daqu', 'schoolcimanggis']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['akhir, pekan', 'dengan', 'alquran', 'daqu', 'schoolcimanggis']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['ayo', 'zikir', 'pagi', 'sore', 'isinya', 'tolak', 'bala', 'keselamatan', 'perlindungan', 'liat', 'kecelakaan', 'tol', 'kayak', 'final']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['ayo', 'zikir', 'pagi', 'sore', 'isi', 'tolak', 'bala', 'selamat', 'lindung', 'liat', 'celaka', 'tol', 'kayak', 'final']</t>
+          <t>['akhir, pekan', 'alquran', 'daqu', 'schoolcimanggis']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['akhir pekan', 'alquran', 'daqu', 'schoolcimanggis']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13107</v>
+        <v>28712</v>
       </c>
       <c r="C3" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dzikir sorenya jangan lupa buat yang belum tau bacaanbacaannya bisa beli ini mumpung lagi diskon harganya dar</t>
+          <t>bantu jawab yang semua bisa jadi pengusaha ya kak</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['dzikir', 'sorenya', 'jangan', 'lupa', 'buat', 'yang', 'belum', 'tau', 'bacaanbacaannya', 'bisa', 'beli', 'ini', 'mumpung', 'lagi', 'diskon', 'harganya', 'dar']</t>
+          <t>['bantu', 'jawab', 'yang', 'semua', 'bisa', 'jadi', 'pengusaha', 'ya', 'kak']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['bantu', 'jawab', 'yang', 'semua', 'bisa', 'jadi', 'pengusaha', 'ya', 'kak']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['dzikir', 'sorenya', 'lupa', 'bacaanbacaannya', 'beli', 'mumpung', 'diskon', 'harganya', 'dar']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['dzikir', 'sore', 'lupa', 'bacaanbacaannya', 'beli', 'mumpung', 'diskon', 'harga', 'dar']</t>
+          <t>['bantu', 'pengusaha', 'kak']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['bantu', 'usaha', 'kak']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13108</v>
+        <v>28713</v>
       </c>
       <c r="C4" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>alkahfinya jangan kelewat nih yuk baca bareng</t>
+          <t>dari office boy jadi punya rukobagaimana</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['alkahfinya', 'jangan', 'kelewat', 'nih', 'yuk', 'baca', 'bareng']</t>
+          <t>['dari', 'office', 'boy', 'jadi', 'punya', 'rukobagaimana']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['dari', 'office', 'boy', 'jadi', 'punya', 'rukobagaimana']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['alkahfinya', 'kelewat', 'yuk', 'baca', 'bareng']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['alkahfinya', 'lewat', 'yuk', 'baca', 'bareng']</t>
+          <t>['office', 'boy', 'rukobagaimana']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['office', 'boy', 'rukobagaimana']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13109</v>
+        <v>28714</v>
       </c>
       <c r="C5" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>buat yang mau aja buku kuliah umum harganya</t>
+          <t>mau jadi orang kaya beginicaranya</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['buat', 'yang', 'mau', 'aja', 'buku', 'kuliah', 'umum', 'harganya']</t>
+          <t>['mau', 'jadi', 'orang', 'kaya', 'beginicaranya']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['mau', 'jadi', 'orang', 'kayak', 'beginicaranya']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['buku', 'kuliah', 'harganya']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['buku', 'kuliah', 'harga']</t>
+          <t>['orang', 'kayak', 'beginicaranya']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['orang', 'kayak', 'beginicaranya']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13110</v>
+        <v>28715</v>
       </c>
       <c r="C6" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>silakan buat yang mau beli dan baca aja</t>
+          <t>banyak yang bertanya tanya apaan neh mansurmology kenapa ustad jadi ngomongin soal saham segala sih tak ke</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['silakan', 'buat', 'yang', 'mau', 'beli', 'dan', 'baca', 'aja']</t>
+          <t>['banyak', 'yang', 'bertanya', 'tanya', 'apaan', 'neh', 'mansurmology', 'kenapa', 'ustad', 'jadi', 'ngomongin', 'soal', 'saham', 'segala', 'sih', 'tak', 'ke']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['banyak', 'yang', 'bertanya', 'tanya', 'apaan', 'nih', 'mansurmology', 'kenapa', 'ustad', 'jadi', 'membicarakan', 'soal', 'saham', 'segala', 'sih', 'tak', 'ke']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['silakan', 'beli', 'baca']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['sila', 'beli', 'baca']</t>
+          <t>['mansurmology', 'ustad', 'membicarakan', 'saham']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['mansurmology', 'ustad', 'bicara', 'saham']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13111</v>
+        <v>28716</v>
       </c>
       <c r="C7" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>belajar bareng yusuf mansur amalan yusuf mansur surat alwaqiah</t>
+          <t>udh di kepoin belon nih nya udh pada punya rdn belon nih yukk buka jgn lupa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['belajar', 'bareng', 'yusuf', 'mansur', 'amalan', 'yusuf', 'mansur', 'surat', 'alwaqiah']</t>
+          <t>['udh', 'di', 'kepoin', 'belon', 'nih', 'nya', 'udh', 'pada', 'punya', 'rdn', 'belon', 'nih', 'yukk', 'buka', 'jgn', 'lupa']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 9 outcomes&gt;</t>
+          <t>['sudah', 'di', 'mengepoi', 'belum', 'nih', 'nya', 'sudah', 'pada', 'punya', 'rdn', 'belum', 'nih', 'ayo', 'buka', 'jangan', 'lupa']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['belajar', 'bareng', 'yusuf', 'mansur', 'amalan', 'yusuf', 'mansur', 'surat', 'alwaqiah']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['ajar', 'bareng', 'yusuf', 'mansur', 'amal', 'yusuf', 'mansur', 'surat', 'alwaqiah']</t>
+          <t>['mengepoi', 'rdn', 'ayo', 'buka', 'lupa']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['mengepoi', 'rdn', 'ayo', 'buka', 'lupa']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13112</v>
+        <v>28717</v>
       </c>
       <c r="C8" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>yang belom baca mencari tuhan yang hilang ini ada bentuk ebookbuku digitalnya harganya cuma</t>
+          <t>yukk kepoin nih</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['yang', 'belom', 'baca', 'mencari', 'tuhan', 'yang', 'hilang', 'ini', 'ada', 'bentuk', 'ebookbuku', 'digitalnya', 'harganya', 'cuma']</t>
+          <t>['yukk', 'kepoin', 'nih']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['ayo', 'mengepoi', 'nih']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['belom', 'baca', 'mencari', 'tuhan', 'hilang', 'bentuk', 'ebookbuku', 'digitalnya', 'harganya']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['bom', 'baca', 'cari', 'tuhan', 'hilang', 'bentuk', 'ebookbuku', 'digital', 'harga']</t>
+          <t>['ayo', 'mengepoi']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['ayo', 'mengepoi']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13113</v>
+        <v>28718</v>
       </c>
       <c r="C9" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>makna quran surat albaqarah ayat belajar bareng yusuf mansur</t>
+          <t>silakan bagi yang belum punya bukubuku ustadz mansur</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['makna', 'quran', 'surat', 'albaqarah', 'ayat', 'belajar', 'bareng', 'yusuf', 'mansur']</t>
+          <t>['silakan', 'bagi', 'yang', 'belum', 'punya', 'bukubuku', 'ustadz', 'mansur']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['silakan', 'bagi', 'yang', 'belum', 'punya', 'bukubuku', 'ustaz', 'mansur']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['makna', 'quran', 'surat', 'albaqarah', 'ayat', 'belajar', 'bareng', 'yusuf', 'mansur']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['makna', 'quran', 'surat', 'albaqarah', 'ayat', 'ajar', 'bareng', 'yusuf', 'mansur']</t>
+          <t>['silakan', 'bukubuku', 'ustaz', 'mansur']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['sila', 'bukubuku', 'ustaz', 'mansur']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13114</v>
+        <v>28719</v>
       </c>
       <c r="C10" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>masih ingat kisah satpam yang dapat juta alias kali lipat dari sedekahnya yang</t>
+          <t>baca alkahfi yuk</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['masih', 'ingat', 'kisah', 'satpam', 'yang', 'dapat', 'juta', 'alias', 'kali', 'lipat', 'dari', 'sedekahnya', 'yang']</t>
+          <t>['baca', 'alkahfi', 'yuk']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['baca', 'alkahfi', 'yuk']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['kisah', 'satpam', 'juta', 'alias', 'kali', 'lipat', 'sedekahnya']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['kisah', 'satpam', 'juta', 'alias', 'kali', 'lipat', 'sedekah']</t>
+          <t>['baca', 'alkahfi', 'yuk']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['baca', 'alkahfi', 'yuk']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13115</v>
+        <v>28720</v>
       </c>
       <c r="C11" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>anak penyelamat akhirat belajar bareng yusuf mansur via</t>
+          <t>saya paling senang sujud karenaini</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['anak', 'penyelamat', 'akhirat', 'belajar', 'bareng', 'yusuf', 'mansur', 'via']</t>
+          <t>['saya', 'paling', 'senang', 'sujud', 'karenaini']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['saya', 'paling', 'senang', 'sujud', 'karenaini']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['anak', 'penyelamat', 'akhirat', 'belajar', 'bareng', 'yusuf', 'mansur', 'via']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['anak', 'selamat', 'akhirat', 'ajar', 'bareng', 'yusuf', 'mansur', 'via']</t>
+          <t>['senang', 'sujud', 'karenaini']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['senang', 'sujud', 'karenaini']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13116</v>
+        <v>28721</v>
       </c>
       <c r="C12" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>buat yang mau sukses aja</t>
+          <t>manfaatkan ini baikbaik daarulmansur</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['buat', 'yang', 'mau', 'sukses', 'aja']</t>
+          <t>['manfaatkan', 'ini', 'baikbaik', 'daarulmansur']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['manfaatkan', 'ini', 'baikbaik', 'daarulmansur']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['sukses']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['sukses']</t>
+          <t>['manfaatkan', 'baikbaik', 'daarulmansur']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['manfaat', 'baikbaik', 'daarulmansur']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13117</v>
+        <v>28722</v>
       </c>
       <c r="C13" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>hari jumat jangan lupa shalawat alkahfi jangan kelewat silakan tulis shalawatnya tulis doanya silakan yah</t>
+          <t>ayo zikir pagi sore isinya tolak bala keselamatan perlindungan liat nih kecelakaan di tol kayak di final</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['hari', 'jumat', 'jangan', 'lupa', 'shalawat', 'alkahfi', 'jangan', 'kelewat', 'silakan', 'tulis', 'shalawatnya', 'tulis', 'doanya', 'silakan', 'yah']</t>
+          <t>['ayo', 'zikir', 'pagi', 'sore', 'isinya', 'tolak', 'bala', 'keselamatan', 'perlindungan', 'liat', 'nih', 'kecelakaan', 'di', 'tol', 'kayak', 'di', 'final']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['ayo', 'zikir', 'pagi', 'sore', 'isinya', 'tolak', 'bala', 'keselamatan', 'perlindungan', 'lihat', 'nih', 'kecelakaan', 'di', 'tol', 'kayak', 'di', 'final']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['jumat', 'lupa', 'shalawat', 'alkahfi', 'kelewat', 'silakan', 'tulis', 'shalawatnya', 'tulis', 'doanya', 'silakan']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['jumat', 'lupa', 'shalawat', 'alkahfi', 'lewat', 'sila', 'tulis', 'shalawatnya', 'tulis', 'doa', 'sila']</t>
+          <t>['ayo', 'zikir', 'pagi', 'sore', 'isinya', 'tolak', 'bala', 'keselamatan', 'perlindungan', 'lihat', 'kecelakaan', 'tol', 'kayak', 'final']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['ayo', 'zikir', 'pagi', 'sore', 'isi', 'tolak', 'bala', 'selamat', 'lindung', 'lihat', 'celaka', 'tol', 'kayak', 'final']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13118</v>
+        <v>28723</v>
       </c>
       <c r="C14" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>abis jumatan kalau dulu di depan masjid liatx ada yang jualan apa ajamakan di warung di depan kalau sekarang cu</t>
+          <t>dzikir sorenya jangan lupa buat yang belum tau bacaanbacaannya bisa beli ini mumpung lagi diskon harganya dar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['abis', 'jumatan', 'kalau', 'dulu', 'di', 'depan', 'masjid', 'liatx', 'ada', 'yang', 'jualan', 'apa', 'ajamakan', 'di', 'warung', 'di', 'depan', 'kalau', 'sekarang', 'cu']</t>
+          <t>['dzikir', 'sorenya', 'jangan', 'lupa', 'buat', 'yang', 'belum', 'tau', 'bacaanbacaannya', 'bisa', 'beli', 'ini', 'mumpung', 'lagi', 'diskon', 'harganya', 'dar']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
+          <t>['zikir', 'sorenya', 'jangan', 'lupa', 'buat', 'yang', 'belum', 'tau', 'bacaanbacaannya', 'bisa', 'beli', 'ini', 'mumpung', 'lagi', 'diskon', 'harganya', 'dar']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['abis', 'jumatan', 'masjid', 'liatx', 'jualan', 'ajamakan', 'warung', 'cu']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['abis', 'jumat', 'masjid', 'liatx', 'jual', 'ajamakan', 'warung', 'cu']</t>
+          <t>['zikir', 'sorenya', 'lupa', 'bacaanbacaannya', 'beli', 'mumpung', 'diskon', 'harganya', 'dar']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['zikir', 'sore', 'lupa', 'bacaanbacaannya', 'beli', 'mumpung', 'diskon', 'harga', 'dar']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13119</v>
+        <v>28724</v>
       </c>
       <c r="C15" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>cahaya al kahfi via mansur</t>
+          <t>alkahfinya jangan kelewat nih yuk baca bareng</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['cahaya', 'al', 'kahfi', 'via', 'mansur']</t>
+          <t>['alkahfinya', 'jangan', 'kelewat', 'nih', 'yuk', 'baca', 'bareng']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['alkahfinya', 'jangan', 'kelewat', 'nih', 'yuk', 'baca', 'bareng']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['cahaya', 'al', 'kahfi', 'via', 'mansur']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['cahaya', 'al', 'kahfi', 'via', 'mansur']</t>
+          <t>['alkahfinya', 'kelewat', 'yuk', 'baca', 'bareng']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['alkahfinya', 'lewat', 'yuk', 'baca', 'bareng']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13120</v>
+        <v>28725</v>
       </c>
       <c r="C16" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>lebih lengkapnya</t>
+          <t>buat yang mau aja buku kuliah umum harganya</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['lebih', 'lengkapnya']</t>
+          <t>['buat', 'yang', 'mau', 'aja', 'buku', 'kuliah', 'umum', 'harganya']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['buat', 'yang', 'mau', 'saja', 'buku', 'kuliah', 'umum', 'harganya']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['lengkapnya']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['lengkap']</t>
+          <t>['buku', 'kuliah', 'harganya']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['buku', 'kuliah', 'harga']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13121</v>
+        <v>28726</v>
       </c>
       <c r="C17" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>buat yang mau aja</t>
+          <t>silakan buat yang mau beli dan baca aja</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['buat', 'yang', 'mau', 'aja']</t>
+          <t>['silakan', 'buat', 'yang', 'mau', 'beli', 'dan', 'baca', 'aja']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['silakan', 'buat', 'yang', 'mau', 'beli', 'dan', 'baca', 'saja']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['silakan', 'beli', 'baca']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['sila', 'beli', 'baca']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13122</v>
+        <v>28727</v>
       </c>
       <c r="C18" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>arrahmaan amp al faatihah mangga tulis apa doanya qobul insyaaallah</t>
+          <t>belajar bareng yusuf mansur amalan yusuf mansur surat alwaqiah</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['arrahmaan', 'amp', 'al', 'faatihah', 'mangga', 'tulis', 'apa', 'doanya', 'qobul', 'insyaaallah']</t>
+          <t>['belajar', 'bareng', 'yusuf', 'mansur', 'amalan', 'yusuf', 'mansur', 'surat', 'alwaqiah']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['belajar', 'bareng', 'yusuf', 'mansur', 'amalan', 'yusuf', 'mansur', 'surat', 'alwaqiah']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['arrahmaan', 'al', 'faatihah', 'mangga', 'tulis', 'doanya', 'qobul', 'insyaaallah']</t>
+          <t>&lt;FreqDist with 7 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['arrahmaan', 'al', 'faatihah', 'mangga', 'tulis', 'doa', 'qobul', 'insyaaallah']</t>
+          <t>['belajar', 'bareng', 'yusuf', 'mansur', 'amalan', 'yusuf', 'mansur', 'surat', 'alwaqiah']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['ajar', 'bareng', 'yusuf', 'mansur', 'amal', 'yusuf', 'mansur', 'surat', 'alwaqiah']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13123</v>
+        <v>28728</v>
       </c>
       <c r="C19" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>sehari bersama santri penghafalquran</t>
+          <t>yang belom baca mencari tuhan yang hilang ini ada bentuk ebookbuku digitalnya harganya cuma</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['sehari', 'bersama', 'santri', 'penghafalquran']</t>
+          <t>['yang', 'belom', 'baca', 'mencari', 'tuhan', 'yang', 'hilang', 'ini', 'ada', 'bentuk', 'ebookbuku', 'digitalnya', 'harganya', 'cuma']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['yang', 'belum', 'baca', 'mencari', 'tuhan', 'yang', 'hilang', 'ini', 'ada', 'bentuk', 'ebookbuku', 'digitalnya', 'harganya', 'cuma']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['sehari', 'santri', 'penghafalquran']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['hari', 'santri', 'penghafalquran']</t>
+          <t>['baca', 'mencari', 'tuhan', 'hilang', 'bentuk', 'ebookbuku', 'digitalnya', 'harganya']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['baca', 'cari', 'tuhan', 'hilang', 'bentuk', 'ebookbuku', 'digital', 'harga']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13124</v>
+        <v>28729</v>
       </c>
       <c r="C20" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>buat yang suka dakwah coba bacaini</t>
+          <t>makna quran surat albaqarah ayat belajar bareng yusuf mansur</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['buat', 'yang', 'suka', 'dakwah', 'coba', 'bacaini']</t>
+          <t>['makna', 'quran', 'surat', 'albaqarah', 'ayat', 'belajar', 'bareng', 'yusuf', 'mansur']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['makna', 'alquran', 'surat', 'albaqarah', 'ayat', 'belajar', 'bareng', 'yusuf', 'mansur']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['suka', 'dakwah', 'coba', 'bacaini']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['suka', 'dakwah', 'coba', 'bacaini']</t>
+          <t>['makna', 'alquran', 'surat', 'albaqarah', 'ayat', 'belajar', 'bareng', 'yusuf', 'mansur']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['makna', 'alquran', 'surat', 'albaqarah', 'ayat', 'ajar', 'bareng', 'yusuf', 'mansur']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13125</v>
+        <v>28730</v>
       </c>
       <c r="C21" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>setiap perintah allah dan rasul pastibaik</t>
+          <t>masih ingat kisah satpam yang dapat juta alias kali lipat dari sedekahnya yang</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['setiap', 'perintah', 'allah', 'dan', 'rasul', 'pastibaik']</t>
+          <t>['masih', 'ingat', 'kisah', 'satpam', 'yang', 'dapat', 'juta', 'alias', 'kali', 'lipat', 'dari', 'sedekahnya', 'yang']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['masih', 'ingat', 'kisah', 'satpam', 'yang', 'dapat', 'juta', 'alias', 'kali', 'lipat', 'dari', 'sedekahnya', 'yang']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['perintah', 'allah', 'rasul', 'pastibaik']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['perintah', 'allah', 'rasul', 'pastibaik']</t>
+          <t>['kisah', 'satpam', 'juta', 'alias', 'kali', 'lipat', 'sedekahnya']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['kisah', 'satpam', 'juta', 'alias', 'kali', 'lipat', 'sedekah']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13126</v>
+        <v>28731</v>
       </c>
       <c r="C22" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ngaji bareng alkahfi yuk belajar bareng yusuf mansur</t>
+          <t>anak penyelamat akhirat belajar bareng yusuf mansur via</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'alkahfi', 'yuk', 'belajar', 'bareng', 'yusuf', 'mansur']</t>
+          <t>['anak', 'penyelamat', 'akhirat', 'belajar', 'bareng', 'yusuf', 'mansur', 'via']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['anak', 'penyelamat', 'akhirat', 'belajar', 'bareng', 'yusuf', 'mansur', 'via']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'alkahfi', 'yuk', 'belajar', 'bareng', 'yusuf', 'mansur']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'alkahfi', 'yuk', 'ajar', 'bareng', 'yusuf', 'mansur']</t>
+          <t>['anak', 'penyelamat', 'akhirat', 'belajar', 'bareng', 'yusuf', 'mansur', 'via']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['anak', 'selamat', 'akhirat', 'ajar', 'bareng', 'yusuf', 'mansur', 'via']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13127</v>
+        <v>28732</v>
       </c>
       <c r="C23" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>recover lalu grow up dan janganmenyerah</t>
+          <t>buat yang mau sukses aja</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['recover', 'lalu', 'grow', 'up', 'dan', 'janganmenyerah']</t>
+          <t>['buat', 'yang', 'mau', 'sukses', 'aja']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['buat', 'yang', 'mau', 'sukses', 'saja']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['recover', 'grow', 'up', 'janganmenyerah']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['recover', 'grow', 'up', 'janganmenyerah']</t>
+          <t>['sukses']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['sukses']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13128</v>
+        <v>28733</v>
       </c>
       <c r="C24" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>dicari anak muda jawabarat</t>
+          <t>hari jumat jangan lupa shalawat alkahfi jangan kelewat silakan tulis shalawatnya tulis doanya silakan yah</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['dicari', 'anak', 'muda', 'jawabarat']</t>
+          <t>['hari', 'jumat', 'jangan', 'lupa', 'shalawat', 'alkahfi', 'jangan', 'kelewat', 'silakan', 'tulis', 'shalawatnya', 'tulis', 'doanya', 'silakan', 'yah']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['hari', 'jumat', 'jangan', 'lupa', 'selawat', 'alkahfi', 'jangan', 'kelewat', 'silakan', 'tulis', 'shalawatnya', 'tulis', 'doanya', 'silakan', 'ya']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['dicari', 'anak', 'muda', 'jawabarat']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['cari', 'anak', 'muda', 'jawabarat']</t>
+          <t>['jumat', 'lupa', 'selawat', 'alkahfi', 'kelewat', 'silakan', 'tulis', 'shalawatnya', 'tulis', 'doanya', 'silakan']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['jumat', 'lupa', 'selawat', 'alkahfi', 'lewat', 'sila', 'tulis', 'shalawatnya', 'tulis', 'doa', 'sila']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13129</v>
+        <v>28734</v>
       </c>
       <c r="C25" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>jangan lupa sit amp aym ya</t>
+          <t>abis jumatan kalau dulu di depan masjid liatx ada yang jualan apa ajamakan di warung di depan kalau sekarang cu</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['jangan', 'lupa', 'sit', 'amp', 'aym', 'ya']</t>
+          <t>['abis', 'jumatan', 'kalau', 'dulu', 'di', 'depan', 'masjid', 'liatx', 'ada', 'yang', 'jualan', 'apa', 'ajamakan', 'di', 'warung', 'di', 'depan', 'kalau', 'sekarang', 'cu']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['habis', 'jumatan', 'kalau', 'dulu', 'di', 'depan', 'masjid', 'liatx', 'ada', 'yang', 'jualan', 'apa', 'ajamakan', 'di', 'warung', 'di', 'depan', 'kalau', 'sekarang', 'cu']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['lupa', 'sit', 'aym']</t>
+          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['lupa', 'sit', 'aym']</t>
+          <t>['habis', 'jumatan', 'masjid', 'liatx', 'jualan', 'ajamakan', 'warung', 'cu']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['habis', 'jumat', 'masjid', 'liatx', 'jual', 'ajamakan', 'warung', 'cu']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13130</v>
+        <v>28735</v>
       </c>
       <c r="C26" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ubah hidup dengan sholat wajib dan sunnah</t>
+          <t>cahaya al kahfi via mansur</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['ubah', 'hidup', 'dengan', 'sholat', 'wajib', 'dan', 'sunnah']</t>
+          <t>['cahaya', 'al', 'kahfi', 'via', 'mansur']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['cahaya', 'al', 'kahfi', 'via', 'mansur']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['ubah', 'hidup', 'sholat', 'wajib', 'sunnah']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['ubah', 'hidup', 'sholat', 'wajib', 'sunnah']</t>
+          <t>['cahaya', 'al', 'kahfi', 'via', 'mansur']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['cahaya', 'al', 'kahfi', 'via', 'mansur']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13131</v>
+        <v>28736</v>
       </c>
       <c r="C27" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>allah akan ganti dengan berlipat kalibanyaknya</t>
+          <t>lebih lengkapnya</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['allah', 'akan', 'ganti', 'dengan', 'berlipat', 'kalibanyaknya']</t>
+          <t>['lebih', 'lengkapnya']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['lebih', 'lengkapnya']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['allah', 'ganti', 'berlipat', 'kalibanyaknya']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['allah', 'ganti', 'lipat', 'kalibanyaknya']</t>
+          <t>['lengkapnya']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['lengkap']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13132</v>
+        <v>28737</v>
       </c>
       <c r="C28" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>kyai abu jibril wafat mari doakanbeliau</t>
+          <t>buat yang mau aja</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['kyai', 'abu', 'jibril', 'wafat', 'mari', 'doakanbeliau']</t>
+          <t>['buat', 'yang', 'mau', 'aja']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['buat', 'yang', 'mau', 'saja']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['kyai', 'abu', 'jibril', 'wafat', 'mari', 'doakanbeliau']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['kyai', 'abu', 'jibril', 'wafat', 'mari', 'doakanbeliau']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13133</v>
+        <v>28738</v>
       </c>
       <c r="C29" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ketahanan pangan sepertibegini</t>
+          <t>arrahmaan amp al faatihah mangga tulis apa doanya qobul insyaaallah</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['ketahanan', 'pangan', 'sepertibegini']</t>
+          <t>['arrahmaan', 'amp', 'al', 'faatihah', 'mangga', 'tulis', 'apa', 'doanya', 'qobul', 'insyaaallah']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['arrahmaan', 'amp', 'al', 'faatihah', 'mangga', 'tulis', 'apa', 'doanya', 'qobul', 'insyaaallah']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['ketahanan', 'pangan', 'sepertibegini']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['tahan', 'pangan', 'sepertibegini']</t>
+          <t>['arrahmaan', 'al', 'faatihah', 'mangga', 'tulis', 'doanya', 'qobul', 'insyaaallah']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['arrahmaan', 'al', 'faatihah', 'mangga', 'tulis', 'doa', 'qobul', 'insyaaallah']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13134</v>
+        <v>28739</v>
       </c>
       <c r="C30" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>dicari wali asuh santritakhassus</t>
+          <t>sehari bersama santri penghafalquran</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['dicari', 'wali', 'asuh', 'santritakhassus']</t>
+          <t>['sehari', 'bersama', 'santri', 'penghafalquran']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['sehari', 'bersama', 'santri', 'penghafalquran']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['dicari', 'wali', 'asuh', 'santritakhassus']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['cari', 'wali', 'asuh', 'santritakhassus']</t>
+          <t>['sehari', 'santri', 'penghafalquran']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['hari', 'santri', 'penghafalquran']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13135</v>
+        <v>28740</v>
       </c>
       <c r="C31" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>olimpiade matematika danprogramming</t>
+          <t>buat yang suka dakwah coba bacaini</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['olimpiade', 'matematika', 'danprogramming']</t>
+          <t>['buat', 'yang', 'suka', 'dakwah', 'coba', 'bacaini']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['buat', 'yang', 'suka', 'dakwah', 'coba', 'bacaini']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['olimpiade', 'matematika', 'danprogramming']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['olimpiade', 'matematika', 'danprogramming']</t>
+          <t>['suka', 'dakwah', 'coba', 'bacaini']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['suka', 'dakwah', 'coba', 'bacaini']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13136</v>
+        <v>28741</v>
       </c>
       <c r="C32" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>abis jumatan kalau dulu di depan masjid liatx ada yang jualan apa ajamakan di warung di depan kalau sekarang cu</t>
+          <t>setiap perintah allah dan rasul pastibaik</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['abis', 'jumatan', 'kalau', 'dulu', 'di', 'depan', 'masjid', 'liatx', 'ada', 'yang', 'jualan', 'apa', 'ajamakan', 'di', 'warung', 'di', 'depan', 'kalau', 'sekarang', 'cu']</t>
+          <t>['setiap', 'perintah', 'allah', 'dan', 'rasul', 'pastibaik']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
+          <t>['setiap', 'perintah', 'allah', 'dan', 'rasul', 'pastibaik']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['abis', 'jumatan', 'masjid', 'liatx', 'jualan', 'ajamakan', 'warung', 'cu']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['abis', 'jumat', 'masjid', 'liatx', 'jual', 'ajamakan', 'warung', 'cu']</t>
+          <t>['perintah', 'allah', 'rasul', 'pastibaik']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['perintah', 'allah', 'rasul', 'pastibaik']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13137</v>
+        <v>28742</v>
       </c>
       <c r="C33" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>abis jumatan kalau dulu di depan masjid liatx ada yang jualan apa ajamakan di warung di depan kalau sekarang cu</t>
+          <t>ngaji bareng alkahfi yuk belajar bareng yusuf mansur</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['abis', 'jumatan', 'kalau', 'dulu', 'di', 'depan', 'masjid', 'liatx', 'ada', 'yang', 'jualan', 'apa', 'ajamakan', 'di', 'warung', 'di', 'depan', 'kalau', 'sekarang', 'cu']</t>
+          <t>['ngaji', 'bareng', 'alkahfi', 'yuk', 'belajar', 'bareng', 'yusuf', 'mansur']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
+          <t>['mengaji', 'bareng', 'alkahfi', 'yuk', 'belajar', 'bareng', 'yusuf', 'mansur']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['abis', 'jumatan', 'masjid', 'liatx', 'jualan', 'ajamakan', 'warung', 'cu']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['abis', 'jumat', 'masjid', 'liatx', 'jual', 'ajamakan', 'warung', 'cu']</t>
+          <t>['mengaji', 'bareng', 'alkahfi', 'yuk', 'belajar', 'bareng', 'yusuf', 'mansur']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['aji', 'bareng', 'alkahfi', 'yuk', 'ajar', 'bareng', 'yusuf', 'mansur']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13138</v>
+        <v>28743</v>
       </c>
       <c r="C34" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>met jumat met shalawat juga alkahfinya jangan sampai lewat</t>
+          <t>recover lalu grow up dan janganmenyerah</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['met', 'jumat', 'met', 'shalawat', 'juga', 'alkahfinya', 'jangan', 'sampai', 'lewat']</t>
+          <t>['recover', 'lalu', 'grow', 'up', 'dan', 'janganmenyerah']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['recover', 'lalu', 'grow', 'up', 'dan', 'janganmenyerah']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['met', 'jumat', 'met', 'shalawat', 'alkahfinya']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['met', 'jumat', 'met', 'shalawat', 'alkahfinya']</t>
+          <t>['recover', 'grow', 'up', 'janganmenyerah']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['recover', 'grow', 'up', 'janganmenyerah']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13139</v>
+        <v>28744</v>
       </c>
       <c r="C35" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>belajar tentang saham dari lo khenghong</t>
+          <t>dicari anak muda jawabarat</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['belajar', 'tentang', 'saham', 'dari', 'lo', 'khenghong']</t>
+          <t>['dicari', 'anak', 'muda', 'jawabarat']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['dicari', 'anak', 'muda', 'jawa, barat']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['belajar', 'saham', 'lo', 'khenghong']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['ajar', 'saham', 'lo', 'khenghong']</t>
+          <t>['dicari', 'anak', 'muda', 'jawa, barat']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['cari', 'anak', 'muda', 'jawa barat']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13140</v>
+        <v>28745</v>
       </c>
       <c r="C36" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>dahsyatnya sedekah jangan takut dan jangan ragu untuk sedekah</t>
+          <t>jangan lupa sit amp aym ya</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['dahsyatnya', 'sedekah', 'jangan', 'takut', 'dan', 'jangan', 'ragu', 'untuk', 'sedekah']</t>
+          <t>['jangan', 'lupa', 'sit', 'amp', 'aym', 'ya']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 9 outcomes&gt;</t>
+          <t>['jangan', 'lupa', 'sit', 'amp', 'aym', 'ya']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['dahsyatnya', 'sedekah', 'takut', 'ragu', 'sedekah']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['dahsyat', 'sedekah', 'takut', 'ragu', 'sedekah']</t>
+          <t>['lupa', 'sit', 'aym']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['lupa', 'sit', 'aym']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13141</v>
+        <v>28746</v>
       </c>
       <c r="C37" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>sedekah subuh</t>
+          <t>ubah hidup dengan sholat wajib dan sunnah</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['sedekah', 'subuh']</t>
+          <t>['ubah', 'hidup', 'dengan', 'sholat', 'wajib', 'dan', 'sunnah']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['ubah', 'hidup', 'dengan', 'salat', 'wajib', 'dan', 'sunnah']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['sedekah', 'subuh']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['sedekah', 'subuh']</t>
+          <t>['ubah', 'hidup', 'salat', 'wajib', 'sunnah']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['ubah', 'hidup', 'salat', 'wajib', 'sunnah']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13142</v>
+        <v>28747</v>
       </c>
       <c r="C38" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>sebelum tidur jangan lupa almulknya doain orangorang yang sedang sakit sedang tertimpa musibah bencana doain</t>
+          <t>allah akan ganti dengan berlipat kalibanyaknya</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['sebelum', 'tidur', 'jangan', 'lupa', 'almulknya', 'doain', 'orangorang', 'yang', 'sedang', 'sakit', 'sedang', 'tertimpa', 'musibah', 'bencana', 'doain']</t>
+          <t>['allah', 'akan', 'ganti', 'dengan', 'berlipat', 'kalibanyaknya']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['allah', 'akan', 'ganti', 'dengan', 'berlipat', 'kalibanyaknya']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['tidur', 'lupa', 'almulknya', 'doain', 'orangorang', 'sakit', 'tertimpa', 'musibah', 'bencana', 'doain']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['tidur', 'lupa', 'almulknya', 'doain', 'orangorang', 'sakit', 'timpa', 'musibah', 'bencana', 'doain']</t>
+          <t>['allah', 'ganti', 'berlipat', 'kalibanyaknya']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['allah', 'ganti', 'lipat', 'kalibanyaknya']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13143</v>
+        <v>28748</v>
       </c>
       <c r="C39" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>doain masyarakat sekitar merapi dan semua masyarakat di semua pegunungan pantai laut pebukitan pertambangan su</t>
+          <t>kyai abu jibril wafat mari doakanbeliau</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['doain', 'masyarakat', 'sekitar', 'merapi', 'dan', 'semua', 'masyarakat', 'di', 'semua', 'pegunungan', 'pantai', 'laut', 'pebukitan', 'pertambangan', 'su']</t>
+          <t>['kyai', 'abu', 'jibril', 'wafat', 'mari', 'doakanbeliau']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['kiai', 'abu', 'jibril', 'wafat', 'mari', 'doakanbeliau']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['doain', 'masyarakat', 'merapi', 'masyarakat', 'pegunungan', 'pantai', 'laut', 'pebukitan', 'pertambangan', 'su']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['doain', 'masyarakat', 'rapi', 'masyarakat', 'gunung', 'pantai', 'laut', 'bukit', 'tambang', 'su']</t>
+          <t>['kiai', 'abu', 'jibril', 'wafat', 'mari', 'doakanbeliau']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['kiai', 'abu', 'jibril', 'wafat', 'mari', 'doakanbeliau']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13144</v>
+        <v>28749</v>
       </c>
       <c r="C40" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>mungkin masih ada yang membutuhkan silakan serba</t>
+          <t>ketahanan pangan sepertibegini</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['mungkin', 'masih', 'ada', 'yang', 'membutuhkan', 'silakan', 'serba']</t>
+          <t>['ketahanan', 'pangan', 'sepertibegini']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['ketahanan', 'pangan', 'sepertibegini']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['membutuhkan', 'silakan', 'serba']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['butuh', 'sila', 'serba']</t>
+          <t>['ketahanan', 'pangan', 'sepertibegini']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['tahan', 'pangan', 'sepertibegini']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13145</v>
+        <v>28750</v>
       </c>
       <c r="C41" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>allah akan melipatgandakanpembayaran</t>
+          <t>dicari wali asuh santritakhassus</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['allah', 'akan', 'melipatgandakanpembayaran']</t>
+          <t>['dicari', 'wali', 'asuh', 'santritakhassus']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['dicari', 'wali', 'asuh', 'santritakhassus']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['allah', 'melipatgandakanpembayaran']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['allah', 'melipatgandakanpembayaran']</t>
+          <t>['dicari', 'wali', 'asuh', 'santritakhassus']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['cari', 'wali', 'asuh', 'santritakhassus']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13146</v>
+        <v>28751</v>
       </c>
       <c r="C42" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>doktor bilal philips kena covid mohondoanya</t>
+          <t>olimpiade matematika danprogramming</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['doktor', 'bilal', 'philips', 'kena', 'covid', 'mohondoanya']</t>
+          <t>['olimpiade', 'matematika', 'danprogramming']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['olimpiade', 'matematika', 'danprogramming']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['doktor', 'bilal', 'philips', 'kena', 'covid', 'mohondoanya']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['doktor', 'bilal', 'philips', 'kena', 'covid', 'mohondoanya']</t>
+          <t>['olimpiade', 'matematika', 'danprogramming']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['olimpiade', 'matematika', 'danprogramming']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13147</v>
+        <v>28752</v>
       </c>
       <c r="C43" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ajak dhuha yang lainnya belajar bareng yusuf mansur</t>
+          <t>abis jumatan kalau dulu di depan masjid liatx ada yang jualan apa ajamakan di warung di depan kalau sekarang cu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['ajak', 'dhuha', 'yang', 'lainnya', 'belajar', 'bareng', 'yusuf', 'mansur']</t>
+          <t>['abis', 'jumatan', 'kalau', 'dulu', 'di', 'depan', 'masjid', 'liatx', 'ada', 'yang', 'jualan', 'apa', 'ajamakan', 'di', 'warung', 'di', 'depan', 'kalau', 'sekarang', 'cu']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['habis', 'jumatan', 'kalau', 'dulu', 'di', 'depan', 'masjid', 'liatx', 'ada', 'yang', 'jualan', 'apa', 'ajamakan', 'di', 'warung', 'di', 'depan', 'kalau', 'sekarang', 'cu']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['ajak', 'dhuha', 'belajar', 'bareng', 'yusuf', 'mansur']</t>
+          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['ajak', 'dhuha', 'ajar', 'bareng', 'yusuf', 'mansur']</t>
+          <t>['habis', 'jumatan', 'masjid', 'liatx', 'jualan', 'ajamakan', 'warung', 'cu']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['habis', 'jumat', 'masjid', 'liatx', 'jual', 'ajamakan', 'warung', 'cu']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13148</v>
+        <v>28753</v>
       </c>
       <c r="C44" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>pppa daarul quran bergerak ke sulawesibarat</t>
+          <t>abis jumatan kalau dulu di depan masjid liatx ada yang jualan apa ajamakan di warung di depan kalau sekarang cu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['pppa', 'daarul', 'quran', 'bergerak', 'ke', 'sulawesibarat']</t>
+          <t>['abis', 'jumatan', 'kalau', 'dulu', 'di', 'depan', 'masjid', 'liatx', 'ada', 'yang', 'jualan', 'apa', 'ajamakan', 'di', 'warung', 'di', 'depan', 'kalau', 'sekarang', 'cu']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['habis', 'jumatan', 'kalau', 'dulu', 'di', 'depan', 'masjid', 'liatx', 'ada', 'yang', 'jualan', 'apa', 'ajamakan', 'di', 'warung', 'di', 'depan', 'kalau', 'sekarang', 'cu']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['pppa', 'daarul', 'quran', 'bergerak', 'sulawesibarat']</t>
+          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['pppa', 'daarul', 'quran', 'gerak', 'sulawesibarat']</t>
+          <t>['habis', 'jumatan', 'masjid', 'liatx', 'jualan', 'ajamakan', 'warung', 'cu']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['habis', 'jumat', 'masjid', 'liatx', 'jual', 'ajamakan', 'warung', 'cu']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13149</v>
+        <v>28754</v>
       </c>
       <c r="C45" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>jangan takut dan jangan ragu untuksedekah</t>
+          <t>met jumat met shalawat juga alkahfinya jangan sampai lewat</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['jangan', 'takut', 'dan', 'jangan', 'ragu', 'untuksedekah']</t>
+          <t>['met', 'jumat', 'met', 'shalawat', 'juga', 'alkahfinya', 'jangan', 'sampai', 'lewat']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['selamat', 'jumat', 'selamat', 'selawat', 'juga', 'alkahfinya', 'jangan', 'sampai', 'lewat']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['takut', 'ragu', 'untuksedekah']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['takut', 'ragu', 'untuksedekah']</t>
+          <t>['selamat', 'jumat', 'selamat', 'selawat', 'alkahfinya']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['selamat', 'jumat', 'selamat', 'selawat', 'alkahfinya']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13150</v>
+        <v>28755</v>
       </c>
       <c r="C46" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>doakan semua orang yang tinggal dekatsemeru</t>
+          <t>belajar tentang saham dari lo khenghong</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['doakan', 'semua', 'orang', 'yang', 'tinggal', 'dekatsemeru']</t>
+          <t>['belajar', 'tentang', 'saham', 'dari', 'lo', 'khenghong']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['belajar', 'tentang', 'saham', 'dari', 'kamu', 'khenghong']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['doakan', 'orang', 'tinggal', 'dekatsemeru']</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['doa', 'orang', 'tinggal', 'dekatsemeru']</t>
+          <t>['belajar', 'saham', 'khenghong']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['ajar', 'saham', 'khenghong']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13151</v>
+        <v>28756</v>
       </c>
       <c r="C47" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>jangan pisahkan dunia dengan agama siapsiap shalat dzuhur dah terus abis shalat doa minta apa kek</t>
+          <t>dahsyatnya sedekah jangan takut dan jangan ragu untuk sedekah</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['jangan', 'pisahkan', 'dunia', 'dengan', 'agama', 'siapsiap', 'shalat', 'dzuhur', 'dah', 'terus', 'abis', 'shalat', 'doa', 'minta', 'apa', 'kek']</t>
+          <t>['dahsyatnya', 'sedekah', 'jangan', 'takut', 'dan', 'jangan', 'ragu', 'untuk', 'sedekah']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['dahsyatnya', 'sedekah', 'jangan', 'takut', 'dan', 'jangan', 'ragu', 'untuk', 'sedekah']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['pisahkan', 'dunia', 'agama', 'siapsiap', 'shalat', 'dzuhur', 'dah', 'abis', 'shalat', 'doa', 'kek']</t>
+          <t>&lt;FreqDist with 7 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['pisah', 'dunia', 'agama', 'siapsiap', 'shalat', 'dzuhur', 'dah', 'abis', 'shalat', 'doa', 'kek']</t>
+          <t>['dahsyatnya', 'sedekah', 'takut', 'ragu', 'sedekah']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['dahsyat', 'sedekah', 'takut', 'ragu', 'sedekah']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13152</v>
+        <v>28757</v>
       </c>
       <c r="C48" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>doa untuk majene mamuju dan kalimantan selatan</t>
+          <t>sedekah subuh</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['doa', 'untuk', 'majene', 'mamuju', 'dan', 'kalimantan', 'selatan']</t>
+          <t>['sedekah', 'subuh']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['sedekah', 'subuh']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['doa', 'majene', 'mamuju', 'kalimantan', 'selatan']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['doa', 'majene', 'mamuju', 'kalimantan', 'selatan']</t>
+          <t>['sedekah', 'subuh']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['sedekah', 'subuh']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13153</v>
+        <v>28758</v>
       </c>
       <c r="C49" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>tanggal januari buku yusuf mansur harganya hanya rp silakan cek di</t>
+          <t>sebelum tidur jangan lupa almulknya doain orangorang yang sedang sakit sedang tertimpa musibah bencana doain</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['tanggal', 'januari', 'buku', 'yusuf', 'mansur', 'harganya', 'hanya', 'rp', 'silakan', 'cek', 'di']</t>
+          <t>['sebelum', 'tidur', 'jangan', 'lupa', 'almulknya', 'doain', 'orangorang', 'yang', 'sedang', 'sakit', 'sedang', 'tertimpa', 'musibah', 'bencana', 'doain']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['sebelum', 'tidur', 'jangan', 'lupa', 'almulknya', 'doakan', 'orangorang', 'yang', 'sedang', 'sakit', 'sedang', 'tertimpa', 'musibah', 'bencana', 'doakan']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['tanggal', 'januari', 'buku', 'yusuf', 'mansur', 'harganya', 'rp', 'silakan', 'cek']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['tanggal', 'januari', 'buku', 'yusuf', 'mansur', 'harga', 'rp', 'sila', 'cek']</t>
+          <t>['tidur', 'lupa', 'almulknya', 'doakan', 'orangorang', 'sakit', 'tertimpa', 'musibah', 'bencana', 'doakan']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['tidur', 'lupa', 'almulknya', 'doa', 'orangorang', 'sakit', 'timpa', 'musibah', 'bencana', 'doa']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13154</v>
+        <v>28759</v>
       </c>
       <c r="C50" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>doa dan bantuan untuk majene danmamuju</t>
+          <t>doain masyarakat sekitar merapi dan semua masyarakat di semua pegunungan pantai laut pebukitan pertambangan su</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['doa', 'dan', 'bantuan', 'untuk', 'majene', 'danmamuju']</t>
+          <t>['doain', 'masyarakat', 'sekitar', 'merapi', 'dan', 'semua', 'masyarakat', 'di', 'semua', 'pegunungan', 'pantai', 'laut', 'pebukitan', 'pertambangan', 'su']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['doakan', 'masyarakat', 'sekitar', 'merapi', 'dan', 'semua', 'masyarakat', 'di', 'semua', 'pegunungan', 'pantai', 'laut', 'pebukitan', 'pertambangan', 'su']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['doa', 'bantuan', 'majene', 'danmamuju']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['doa', 'bantu', 'majene', 'danmamuju']</t>
+          <t>['doakan', 'masyarakat', 'merapi', 'masyarakat', 'pegunungan', 'pantai', 'laut', 'pebukitan', 'pertambangan', 'su']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['doa', 'masyarakat', 'rapi', 'masyarakat', 'gunung', 'pantai', 'laut', 'bukit', 'tambang', 'su']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13155</v>
+        <v>28760</v>
       </c>
       <c r="C51" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>sedekah itu pengubah nasib dankeadaan</t>
+          <t>mungkin masih ada yang membutuhkan silakan serba</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['sedekah', 'itu', 'pengubah', 'nasib', 'dankeadaan']</t>
+          <t>['mungkin', 'masih', 'ada', 'yang', 'membutuhkan', 'silakan', 'serba']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['mungkin', 'masih', 'ada', 'yang', 'membutuhkan', 'silakan', 'serba']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['sedekah', 'pengubah', 'nasib', 'dankeadaan']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['sedekah', 'ubah', 'nasib', 'dankeadaan']</t>
+          <t>['membutuhkan', 'silakan', 'serba']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['butuh', 'sila', 'serba']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13156</v>
+        <v>28761</v>
       </c>
       <c r="C52" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>tujuh gempa berbarengan di tujuh lokasi perbanyak doa</t>
+          <t>allah akan melipatgandakanpembayaran</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['tujuh', 'gempa', 'berbarengan', 'di', 'tujuh', 'lokasi', 'perbanyak', 'doa']</t>
+          <t>['allah', 'akan', 'melipatgandakanpembayaran']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['allah', 'akan', 'melipatgandakanpembayaran']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['tujuh', 'gempa', 'berbarengan', 'tujuh', 'lokasi', 'perbanyak', 'doa']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['tujuh', 'gempa', 'bareng', 'tujuh', 'lokasi', 'banyak', 'doa']</t>
+          <t>['allah', 'melipatgandakanpembayaran']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['allah', 'melipatgandakanpembayaran']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13157</v>
+        <v>28762</v>
       </c>
       <c r="C53" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ngaji bareng alkahfi yuk</t>
+          <t>doktor bilal philips kena covid mohondoanya</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'alkahfi', 'yuk']</t>
+          <t>['doktor', 'bilal', 'philips', 'kena', 'covid', 'mohondoanya']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['doktor', 'bilal', 'philips', 'kena', 'covid', 'mohondoanya']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'alkahfi', 'yuk']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['ngaji', 'bareng', 'alkahfi', 'yuk']</t>
+          <t>['doktor', 'bilal', 'philips', 'kena', 'covid', 'mohondoanya']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['doktor', 'bilal', 'philips', 'kena', 'covid', 'mohondoanya']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13158</v>
+        <v>28763</v>
       </c>
       <c r="C54" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>tujuh gempa berbarengan di tujuhlokasi</t>
+          <t>ajak dhuha yang lainnya belajar bareng yusuf mansur</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['tujuh', 'gempa', 'berbarengan', 'di', 'tujuhlokasi']</t>
+          <t>['ajak', 'dhuha', 'yang', 'lainnya', 'belajar', 'bareng', 'yusuf', 'mansur']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['ajak', 'dhuha', 'yang', 'lainnya', 'belajar', 'bareng', 'yusuf', 'mansur']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['tujuh', 'gempa', 'berbarengan', 'tujuhlokasi']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['tujuh', 'gempa', 'bareng', 'tujuhlokasi']</t>
+          <t>['ajak', 'dhuha', 'belajar', 'bareng', 'yusuf', 'mansur']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['ajak', 'dhuha', 'ajar', 'bareng', 'yusuf', 'mansur']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13159</v>
+        <v>28764</v>
       </c>
       <c r="C55" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>syekh ali jaber wafat mohondoanya</t>
+          <t>pppa daarul quran bergerak ke sulawesibarat</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['syekh', 'ali', 'jaber', 'wafat', 'mohondoanya']</t>
+          <t>['pppa', 'daarul', 'quran', 'bergerak', 'ke', 'sulawesibarat']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['pppa', 'daarul', 'alquran', 'bergerak', 'ke', 'sulawesibarat']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['syekh', 'ali', 'jaber', 'wafat', 'mohondoanya']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['syekh', 'ali', 'jaber', 'wafat', 'mohondoanya']</t>
+          <t>['pppa', 'daarul', 'alquran', 'bergerak', 'sulawesibarat']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['pppa', 'daarul', 'alquran', 'gerak', 'sulawesibarat']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13160</v>
+        <v>28765</v>
       </c>
       <c r="C56" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>paytren berencana ipo mohondoanya</t>
+          <t>jangan takut dan jangan ragu untuksedekah</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['paytren', 'berencana', 'ipo', 'mohondoanya']</t>
+          <t>['jangan', 'takut', 'dan', 'jangan', 'ragu', 'untuksedekah']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['jangan', 'takut', 'dan', 'jangan', 'ragu', 'untuksedekah']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['paytren', 'berencana', 'ipo', 'mohondoanya']</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['paytren', 'rencana', 'ipo', 'mohondoanya']</t>
+          <t>['takut', 'ragu', 'untuksedekah']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['takut', 'ragu', 'untuksedekah']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13161</v>
+        <v>28766</v>
       </c>
       <c r="C57" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>udah dhuha kalau udah ajak dhuha yang lainnya juga ya</t>
+          <t>doakan semua orang yang tinggal dekatsemeru</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['udah', 'dhuha', 'kalau', 'udah', 'ajak', 'dhuha', 'yang', 'lainnya', 'juga', 'ya']</t>
+          <t>['doakan', 'semua', 'orang', 'yang', 'tinggal', 'dekatsemeru']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 10 outcomes&gt;</t>
+          <t>['doakan', 'semua', 'orang', 'yang', 'tinggal', 'dekatsemeru']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['udah', 'dhuha', 'udah', 'ajak', 'dhuha']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['udah', 'dhuha', 'udah', 'ajak', 'dhuha']</t>
+          <t>['doakan', 'orang', 'tinggal', 'dekatsemeru']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['doa', 'orang', 'tinggal', 'dekatsemeru']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13162</v>
+        <v>28767</v>
       </c>
       <c r="C58" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>zikir tolak bala dibaca pagi sore ini sifatnya menyeluruh silahkan ya dibaca  benerbener buat bahaya apa aj</t>
+          <t>jangan pisahkan dunia dengan agama siapsiap shalat dzuhur dah terus abis shalat doa minta apa kek</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['zikir', 'tolak', 'bala', 'dibaca', 'pagi', 'sore', 'ini', 'sifatnya', 'menyeluruh', 'silahkan', 'ya', 'dibaca', 'benerbener', 'buat', 'bahaya', 'apa', 'aj']</t>
+          <t>['jangan', 'pisahkan', 'dunia', 'dengan', 'agama', 'siapsiap', 'shalat', 'dzuhur', 'dah', 'terus', 'abis', 'shalat', 'doa', 'minta', 'apa', 'kek']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['jangan', 'pisahkan', 'dunia', 'dengan', 'agama', 'siapsiap', 'salat', 'dzuhur', 'sudah', 'terus', 'habis', 'salat', 'doa', 'meminta', 'apa', 'kayak']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['zikir', 'tolak', 'bala', 'dibaca', 'pagi', 'sore', 'sifatnya', 'silahkan', 'dibaca', 'benerbener', 'bahaya', 'aj']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['zikir', 'tolak', 'bala', 'baca', 'pagi', 'sore', 'sifat', 'silah', 'baca', 'benerbener', 'bahaya', 'aj']</t>
+          <t>['pisahkan', 'dunia', 'agama', 'siapsiap', 'salat', 'dzuhur', 'habis', 'salat', 'doa', 'kayak']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['pisah', 'dunia', 'agama', 'siapsiap', 'salat', 'dzuhur', 'habis', 'salat', 'doa', 'kayak']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13163</v>
+        <v>28768</v>
       </c>
       <c r="C59" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>cegat shalat agar terwujud hajat jangan durhaka bagian yang paling kecil kita durhaka sama allah kita juga menyu</t>
+          <t>doa untuk majene mamuju dan kalimantan selatan</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['cegat', 'shalat', 'agar', 'terwujud', 'hajat', 'jangan', 'durhaka', 'bagian', 'yang', 'paling', 'kecil', 'kita', 'durhaka', 'sama', 'allah', 'kita', 'juga', 'menyu']</t>
+          <t>['doa', 'untuk', 'majene', 'mamuju', 'dan', 'kalimantan', 'selatan']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['doa', 'untuk', 'majene', 'mamuju', 'dan', 'kalimantan', 'selatan']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['cegat', 'shalat', 'terwujud', 'hajat', 'durhaka', 'durhaka', 'allah', 'menyu']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['cegat', 'shalat', 'wujud', 'hajat', 'durhaka', 'durhaka', 'allah', 'menyu']</t>
+          <t>['doa', 'majene', 'mamuju', 'kalimantan', 'selatan']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['doa', 'majene', 'mamuju', 'kalimantan', 'selatan']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13164</v>
+        <v>28769</v>
       </c>
       <c r="C60" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>sedekah tambah amal soleh buat percepat terwujudnya hajat dan impian</t>
+          <t>tanggal januari buku yusuf mansur harganya hanya rp silakan cek di</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['sedekah', 'tambah', 'amal', 'soleh', 'buat', 'percepat', 'terwujudnya', 'hajat', 'dan', 'impian']</t>
+          <t>['tanggal', 'januari', 'buku', 'yusuf', 'mansur', 'harganya', 'hanya', 'rp', 'silakan', 'cek', 'di']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['tanggal', 'januari', 'buku', 'yusuf', 'mansur', 'harganya', 'hanya', 'rupiah', 'silakan', 'cek', 'di']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['sedekah', 'amal', 'soleh', 'percepat', 'terwujudnya', 'hajat', 'impian']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['sedekah', 'amal', 'soleh', 'cepat', 'wujud', 'hajat', 'impi']</t>
+          <t>['tanggal', 'januari', 'buku', 'yusuf', 'mansur', 'harganya', 'rupiah', 'silakan', 'cek']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['tanggal', 'januari', 'buku', 'yusuf', 'mansur', 'harga', 'rupiah', 'sila', 'cek']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13165</v>
+        <v>28770</v>
       </c>
       <c r="C61" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>abis sholat ingat untuk dzikir ini</t>
+          <t>doa dan bantuan untuk majene danmamuju</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['abis', 'sholat', 'ingat', 'untuk', 'dzikir', 'ini']</t>
+          <t>['doa', 'dan', 'bantuan', 'untuk', 'majene', 'danmamuju']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['doa', 'dan', 'bantuan', 'untuk', 'majene', 'danmamuju']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['abis', 'sholat', 'dzikir']</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['abis', 'sholat', 'dzikir']</t>
+          <t>['doa', 'bantuan', 'majene', 'danmamuju']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['doa', 'bantu', 'majene', 'danmamuju']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13166</v>
+        <v>28771</v>
       </c>
       <c r="C62" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>stand by dzuhur dah dari sekarang</t>
+          <t>sedekah itu pengubah nasib dankeadaan</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['stand', 'by', 'dzuhur', 'dah', 'dari', 'sekarang']</t>
+          <t>['sedekah', 'itu', 'pengubah', 'nasib', 'dankeadaan']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['sedekah', 'itu', 'pengubah', 'nasib', 'dankeadaan']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['stand', 'by', 'dzuhur', 'dah']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['stand', 'by', 'dzuhur', 'dah']</t>
+          <t>['sedekah', 'pengubah', 'nasib', 'dankeadaan']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['sedekah', 'ubah', 'nasib', 'dankeadaan']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13167</v>
+        <v>28772</v>
       </c>
       <c r="C63" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>doa minta petunjuk jika ada perselisihan pendapat</t>
+          <t>tujuh gempa berbarengan di tujuh lokasi perbanyak doa</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['doa', 'minta', 'petunjuk', 'jika', 'ada', 'perselisihan', 'pendapat']</t>
+          <t>['tujuh', 'gempa', 'berbarengan', 'di', 'tujuh', 'lokasi', 'perbanyak', 'doa']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['tujuh', 'gempa', 'berbarengan', 'di', 'tujuh', 'lokasi', 'perbanyak', 'doa']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['doa', 'petunjuk', 'perselisihan', 'pendapat']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['doa', 'tunjuk', 'selisih', 'dapat']</t>
+          <t>['tujuh', 'gempa', 'berbarengan', 'tujuh', 'lokasi', 'perbanyak', 'doa']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['tujuh', 'gempa', 'bareng', 'tujuh', 'lokasi', 'banyak', 'doa']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13168</v>
+        <v>28773</v>
       </c>
       <c r="C64" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>silakan yang membutuhkan bisa juga diinfokan ke teman rekan kenalan atau bahkan mantan hehehe</t>
+          <t>ngaji bareng alkahfi yuk</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['silakan', 'yang', 'membutuhkan', 'bisa', 'juga', 'diinfokan', 'ke', 'teman', 'rekan', 'kenalan', 'atau', 'bahkan', 'mantan', 'hehehe']</t>
+          <t>['ngaji', 'bareng', 'alkahfi', 'yuk']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['mengaji', 'bareng', 'alkahfi', 'yuk']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['silakan', 'membutuhkan', 'diinfokan', 'teman', 'rekan', 'kenalan', 'mantan', 'hehehe']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['sila', 'butuh', 'info', 'teman', 'rekan', 'kenal', 'mantan', 'hehehe']</t>
+          <t>['mengaji', 'bareng', 'alkahfi', 'yuk']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['aji', 'bareng', 'alkahfi', 'yuk']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13169</v>
+        <v>28774</v>
       </c>
       <c r="C65" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>hatihati penipuan beli sahambris</t>
+          <t>tujuh gempa berbarengan di tujuhlokasi</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['hatihati', 'penipuan', 'beli', 'sahambris']</t>
+          <t>['tujuh', 'gempa', 'berbarengan', 'di', 'tujuhlokasi']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['tujuh', 'gempa', 'berbarengan', 'di', 'tujuhlokasi']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['hatihati', 'penipuan', 'beli', 'sahambris']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['hatihati', 'tipu', 'beli', 'sahambris']</t>
+          <t>['tujuh', 'gempa', 'berbarengan', 'tujuhlokasi']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['tujuh', 'gempa', 'bareng', 'tujuhlokasi']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13170</v>
+        <v>28775</v>
       </c>
       <c r="C66" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>urusan rezeki itu kaitannya samashalat</t>
+          <t>syekh ali jaber wafat mohondoanya</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['urusan', 'rezeki', 'itu', 'kaitannya', 'samashalat']</t>
+          <t>['syekh', 'ali', 'jaber', 'wafat', 'mohondoanya']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['syekh', 'ali', 'jaber', 'wafat', 'mohondoanya']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>['urusan', 'rezeki', 'kaitannya', 'samashalat']</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['urus', 'rezeki', 'kait', 'samashalat']</t>
+          <t>['syekh', 'ali', 'jaber', 'wafat', 'mohondoanya']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['syekh', 'ali', 'jaber', 'wafat', 'mohondoanya']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13171</v>
+        <v>28776</v>
       </c>
       <c r="C67" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>doa doa untuk hajat dan masalah edisi januari</t>
+          <t>paytren berencana ipo mohondoanya</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['doa', 'doa', 'untuk', 'hajat', 'dan', 'masalah', 'edisi', 'januari']</t>
+          <t>['paytren', 'berencana', 'ipo', 'mohondoanya']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['paytren', 'berencana', 'ipo', 'mohondoanya']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['doa', 'doa', 'hajat', 'edisi', 'januari']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['doa', 'doa', 'hajat', 'edisi', 'januari']</t>
+          <t>['paytren', 'berencana', 'ipo', 'mohondoanya']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['paytren', 'rencana', 'ipo', 'mohondoanya']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13172</v>
+        <v>28777</v>
       </c>
       <c r="C68" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>yang butuh info tentang daarul mansur wanayasa purwakarta</t>
+          <t>udah dhuha kalau udah ajak dhuha yang lainnya juga ya</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['yang', 'butuh', 'info', 'tentang', 'daarul', 'mansur', 'wanayasa', 'purwakarta']</t>
+          <t>['udah', 'dhuha', 'kalau', 'udah', 'ajak', 'dhuha', 'yang', 'lainnya', 'juga', 'ya']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['sudah', 'dhuha', 'kalau', 'sudah', 'ajak', 'dhuha', 'yang', 'lainnya', 'juga', 'ya']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['butuh', 'info', 'daarul', 'mansur', 'wanayasa', 'purwakarta']</t>
+          <t>&lt;FreqDist with 8 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['butuh', 'info', 'daarul', 'mansur', 'wanayasa', 'purwakarta']</t>
+          <t>['dhuha', 'ajak', 'dhuha']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['dhuha', 'ajak', 'dhuha']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13173</v>
+        <v>28778</v>
       </c>
       <c r="C69" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">paytren academy bekerja sama dengan kinemaster indonesia mengadakan workshop video editing selama bulan </t>
+          <t>zikir tolak bala dibaca pagi sore ini sifatnya menyeluruh silahkan ya dibaca  benerbener buat bahaya apa aj</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['paytren', 'academy', 'bekerja', 'sama', 'dengan', 'kinemaster', 'indonesia', 'mengadakan', 'workshop', 'video', 'editing', 'selama', 'bulan']</t>
+          <t>['zikir', 'tolak', 'bala', 'dibaca', 'pagi', 'sore', 'ini', 'sifatnya', 'menyeluruh', 'silahkan', 'ya', 'dibaca', 'benerbener', 'buat', 'bahaya', 'apa', 'aj']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['zikir', 'tolak', 'bala', 'dibaca', 'pagi', 'sore', 'ini', 'sifatnya', 'menyeluruh', 'silakan', 'ya', 'dibaca', 'benerbener', 'buat', 'bahaya', 'apa', 'saja']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['paytren', 'academy', 'kinemaster', 'indonesia', 'mengadakan', 'workshop', 'video', 'editing']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['paytren', 'academy', 'master', 'indonesia', 'ada', 'workshop', 'video', 'editing']</t>
+          <t>['zikir', 'tolak', 'bala', 'dibaca', 'pagi', 'sore', 'sifatnya', 'silakan', 'dibaca', 'benerbener', 'bahaya']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['zikir', 'tolak', 'bala', 'baca', 'pagi', 'sore', 'sifat', 'sila', 'baca', 'benerbener', 'bahaya']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13174</v>
+        <v>28779</v>
       </c>
       <c r="C70" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ya allah jadikanlah saya orang kaya yang bermanfaat</t>
+          <t>cegat shalat agar terwujud hajat jangan durhaka bagian yang paling kecil kita durhaka sama allah kita juga menyu</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['ya', 'allah', 'jadikanlah', 'saya', 'orang', 'kaya', 'yang', 'bermanfaat']</t>
+          <t>['cegat', 'shalat', 'agar', 'terwujud', 'hajat', 'jangan', 'durhaka', 'bagian', 'yang', 'paling', 'kecil', 'kita', 'durhaka', 'sama', 'allah', 'kita', 'juga', 'menyu']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['cegat', 'salat', 'agar', 'terwujud', 'hajat', 'jangan', 'durhaka', 'bagian', 'yang', 'paling', 'kecil', 'kita', 'durhaka', 'sama', 'allah', 'kita', 'juga', 'menyu']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['allah', 'jadikanlah', 'orang', 'kaya', 'bermanfaat']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['allah', 'jadi', 'orang', 'kaya', 'manfaat']</t>
+          <t>['cegat', 'salat', 'terwujud', 'hajat', 'durhaka', 'durhaka', 'allah', 'menyu']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['cegat', 'salat', 'wujud', 'hajat', 'durhaka', 'durhaka', 'allah', 'menyu']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13175</v>
+        <v>28780</v>
       </c>
       <c r="C71" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>daarul mansur wanayasapurwakarta</t>
+          <t>sedekah tambah amal soleh buat percepat terwujudnya hajat dan impian</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['daarul', 'mansur', 'wanayasapurwakarta']</t>
+          <t>['sedekah', 'tambah', 'amal', 'soleh', 'buat', 'percepat', 'terwujudnya', 'hajat', 'dan', 'impian']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['sedekah', 'tambah', 'amal', 'saleh', 'buat', 'percepat', 'terwujudnya', 'hajat', 'dan', 'impian']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['daarul', 'mansur', 'wanayasapurwakarta']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['daarul', 'mansur', 'wanayasapurwakarta']</t>
+          <t>['sedekah', 'amal', 'saleh', 'percepat', 'terwujudnya', 'hajat', 'impian']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['sedekah', 'amal', 'saleh', 'cepat', 'wujud', 'hajat', 'impi']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13176</v>
+        <v>28781</v>
       </c>
       <c r="C72" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>yusuf mansur mengajak jadi investorritel</t>
+          <t>abis sholat ingat untuk dzikir ini</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['yusuf', 'mansur', 'mengajak', 'jadi', 'investorritel']</t>
+          <t>['abis', 'sholat', 'ingat', 'untuk', 'dzikir', 'ini']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['habis', 'salat', 'ingat', 'untuk', 'zikir', 'ini']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['yusuf', 'mansur', 'mengajak', 'investorritel']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['yusuf', 'mansur', 'ajak', 'investorritel']</t>
+          <t>['habis', 'salat', 'zikir']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['habis', 'salat', 'zikir']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>13177</v>
+        <v>28782</v>
       </c>
       <c r="C73" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>shalat tepat waktu kunci pengubahnasib</t>
+          <t>stand by dzuhur dah dari sekarang</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['shalat', 'tepat', 'waktu', 'kunci', 'pengubahnasib']</t>
+          <t>['stand', 'by', 'dzuhur', 'dah', 'dari', 'sekarang']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['stand', 'by', 'dzuhur', 'sudah', 'dari', 'sekarang']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['shalat', 'kunci', 'pengubahnasib']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['shalat', 'kunci', 'pengubahnasib']</t>
+          <t>['stand', 'by', 'dzuhur']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['stand', 'by', 'dzuhur']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13178</v>
+        <v>28783</v>
       </c>
       <c r="C74" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>met alkahfi ya</t>
+          <t>doa minta petunjuk jika ada perselisihan pendapat</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['met', 'alkahfi', 'ya']</t>
+          <t>['doa', 'minta', 'petunjuk', 'jika', 'ada', 'perselisihan', 'pendapat']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['doa', 'meminta', 'petunjuk', 'jika', 'ada', 'perselisihan', 'pendapat']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['met', 'alkahfi']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['met', 'alkahfi']</t>
+          <t>['doa', 'petunjuk', 'perselisihan', 'pendapat']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['doa', 'tunjuk', 'selisih', 'dapat']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13179</v>
+        <v>28784</v>
       </c>
       <c r="C75" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>bulan infrastruktur saham wika pegangterus</t>
+          <t>silakan yang membutuhkan bisa juga diinfokan ke teman rekan kenalan atau bahkan mantan hehehe</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['bulan', 'infrastruktur', 'saham', 'wika', 'pegangterus']</t>
+          <t>['silakan', 'yang', 'membutuhkan', 'bisa', 'juga', 'diinfokan', 'ke', 'teman', 'rekan', 'kenalan', 'atau', 'bahkan', 'mantan', 'hehehe']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['silakan', 'yang', 'membutuhkan', 'bisa', 'juga', 'diinfokan', 'ke', 'teman', 'rekan', 'kenalan', 'atau', 'bahkan', 'mantan', 'hehe']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['infrastruktur', 'saham', 'wika', 'pegangterus']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['infrastruktur', 'saham', 'wika', 'pegangterus']</t>
+          <t>['silakan', 'membutuhkan', 'diinfokan', 'teman', 'rekan', 'kenalan', 'mantan']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['sila', 'butuh', 'info', 'teman', 'rekan', 'kenal', 'mantan']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13180</v>
+        <v>28785</v>
       </c>
       <c r="C76" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>the story of alwaaqiah surah kaya</t>
+          <t>hatihati penipuan beli sahambris</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['the', 'story', 'of', 'alwaaqiah', 'surah', 'kaya']</t>
+          <t>['hatihati', 'penipuan', 'beli', 'sahambris']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['hatihati', 'penipuan', 'beli', 'sahambris']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['the', 'story', 'of', 'alwaaqiah', 'surah', 'kaya']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['the', 'story', 'of', 'alwaaqiah', 'surah', 'kaya']</t>
+          <t>['hatihati', 'penipuan', 'beli', 'sahambris']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['hatihati', 'tipu', 'beli', 'sahambris']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13181</v>
+        <v>28786</v>
       </c>
       <c r="C77" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>kunci kesuksesan itu adalah kembali ke quran belajar bareng yusuf mansur silakan dibuka qurannya</t>
+          <t>urusan rezeki itu kaitannya samashalat</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['kunci', 'kesuksesan', 'itu', 'adalah', 'kembali', 'ke', 'quran', 'belajar', 'bareng', 'yusuf', 'mansur', 'silakan', 'dibuka', 'qurannya']</t>
+          <t>['urusan', 'rezeki', 'itu', 'kaitannya', 'samashalat']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['urusan', 'rezeki', 'itu', 'kaitannya', 'samashalat']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['kunci', 'kesuksesan', 'quran', 'belajar', 'bareng', 'yusuf', 'mansur', 'silakan', 'dibuka', 'qurannya']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['kunci', 'sukses', 'quran', 'ajar', 'bareng', 'yusuf', 'mansur', 'sila', 'buka', 'quran']</t>
+          <t>['urusan', 'rezeki', 'kaitannya', 'samashalat']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['urus', 'rezeki', 'kait', 'samashalat']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13182</v>
+        <v>28787</v>
       </c>
       <c r="C78" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>kegunaan membaca almulk</t>
+          <t>doa doa untuk hajat dan masalah edisi januari</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['kegunaan', 'membaca', 'almulk']</t>
+          <t>['doa', 'doa', 'untuk', 'hajat', 'dan', 'masalah', 'edisi', 'januari']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['doa', 'doa', 'untuk', 'hajat', 'dan', 'masalah', 'edisi', 'januari']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['kegunaan', 'membaca', 'almulk']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['guna', 'baca', 'almulk']</t>
+          <t>['doa', 'doa', 'hajat', 'edisi', 'januari']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['doa', 'doa', 'hajat', 'edisi', 'januari']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13183</v>
+        <v>28788</v>
       </c>
       <c r="C79" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>waskita itu izin allah palingtinggi</t>
+          <t>yang butuh info tentang daarul mansur wanayasa purwakarta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['waskita', 'itu', 'izin', 'allah', 'palingtinggi']</t>
+          <t>['yang', 'butuh', 'info', 'tentang', 'daarul', 'mansur', 'wanayasa', 'purwakarta']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['yang', 'butuh', 'info', 'tentang', 'daarul', 'mansur', 'wanayasa', 'purwakarta']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['waskita', 'izin', 'allah', 'palingtinggi']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['waskita', 'izin', 'allah', 'palingtinggi']</t>
+          <t>['butuh', 'info', 'daarul', 'mansur', 'wanayasa', 'purwakarta']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['butuh', 'info', 'daarul', 'mansur', 'wanayasa', 'purwakarta']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13184</v>
+        <v>28789</v>
       </c>
       <c r="C80" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>amalanamalan penarik rezeki lagi covid kudu banyak ngelakuin ini</t>
+          <t xml:space="preserve">paytren academy bekerja sama dengan kinemaster indonesia mengadakan workshop video editing selama bulan </t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['amalanamalan', 'penarik', 'rezeki', 'lagi', 'covid', 'kudu', 'banyak', 'ngelakuin', 'ini']</t>
+          <t>['paytren', 'academy', 'bekerja', 'sama', 'dengan', 'kinemaster', 'indonesia', 'mengadakan', 'workshop', 'video', 'editing', 'selama', 'bulan']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['paytren', 'academy', 'bekerja', 'sama', 'dengan', 'kinemaster', 'indonesia', 'mengadakan', 'workshop', 'video', 'pengeditan', 'selama', 'bulan']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['amalanamalan', 'penarik', 'rezeki', 'covid', 'kudu', 'ngelakuin']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['amalanamalan', 'tarik', 'rezeki', 'covid', 'kudu', 'ngelakuin']</t>
+          <t>['paytren', 'academy', 'kinemaster', 'indonesia', 'mengadakan', 'workshop', 'video', 'pengeditan']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['paytren', 'academy', 'master', 'indonesia', 'ada', 'workshop', 'video', 'edit']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13185</v>
+        <v>28790</v>
       </c>
       <c r="C81" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>laksanakan yang wajib hidupkan yang sunnah maka rezekimengalir</t>
+          <t>ya allah jadikanlah saya orang kaya yang bermanfaat</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['laksanakan', 'yang', 'wajib', 'hidupkan', 'yang', 'sunnah', 'maka', 'rezekimengalir']</t>
+          <t>['ya', 'allah', 'jadikanlah', 'saya', 'orang', 'kaya', 'yang', 'bermanfaat']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['ya', 'allah', 'jadikanlah', 'saya', 'orang', 'kayak', 'yang', 'bermanfaat']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['laksanakan', 'wajib', 'hidupkan', 'sunnah', 'rezekimengalir']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['laksana', 'wajib', 'hidup', 'sunnah', 'rezekimengalir']</t>
+          <t>['allah', 'jadikanlah', 'orang', 'kayak', 'bermanfaat']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['allah', 'jadi', 'orang', 'kayak', 'manfaat']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13186</v>
+        <v>28791</v>
       </c>
       <c r="C82" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>cegat shalat agar terwujud hajat dan impian</t>
+          <t>daarul mansur wanayasapurwakarta</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['cegat', 'shalat', 'agar', 'terwujud', 'hajat', 'dan', 'impian']</t>
+          <t>['daarul', 'mansur', 'wanayasapurwakarta']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['daarul', 'mansur', 'wanayasapurwakarta']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['cegat', 'shalat', 'terwujud', 'hajat', 'impian']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['cegat', 'shalat', 'wujud', 'hajat', 'impi']</t>
+          <t>['daarul', 'mansur', 'wanayasapurwakarta']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['daarul', 'mansur', 'wanayasapurwakarta']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13187</v>
+        <v>28792</v>
       </c>
       <c r="C83" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>kebenarannya ya dicek pagi ini hehehe wallaahu alam namun ini penuh harapan jadi saya trs terang bnr banyak</t>
+          <t>yusuf mansur mengajak jadi investorritel</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['kebenarannya', 'ya', 'dicek', 'pagi', 'ini', 'hehehe', 'wallaahu', 'alam', 'namun', 'ini', 'penuh', 'harapan', 'jadi', 'saya', 'trs', 'terang', 'bnr', 'banyak']</t>
+          <t>['yusuf', 'mansur', 'mengajak', 'jadi', 'investorritel']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['yusuf', 'mansur', 'mengajak', 'jadi', 'investorritel']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['kebenarannya', 'dicek', 'pagi', 'hehehe', 'wallaahu', 'alam', 'penuh', 'harapan', 'trs', 'terang', 'bnr']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['benar', 'cek', 'pagi', 'hehehe', 'wallaahu', 'alam', 'penuh', 'harap', 'trs', 'terang', 'bnr']</t>
+          <t>['yusuf', 'mansur', 'mengajak', 'investorritel']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['yusuf', 'mansur', 'ajak', 'investorritel']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13188</v>
+        <v>28793</v>
       </c>
       <c r="C84" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>mansurmology beli dan pegangin saham bumn</t>
+          <t>shalat tepat waktu kunci pengubahnasib</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['mansurmology', 'beli', 'dan', 'pegangin', 'saham', 'bumn']</t>
+          <t>['shalat', 'tepat', 'waktu', 'kunci', 'pengubahnasib']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['salat', 'tepat', 'waktu', 'kunci', 'pengubahnasib']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['mansurmology', 'beli', 'pegangin', 'saham', 'bumn']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['mansurmology', 'beli', 'pegangin', 'saham', 'bumn']</t>
+          <t>['salat', 'kunci', 'pengubahnasib']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['salat', 'kunci', 'pengubahnasib']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13189</v>
+        <v>28794</v>
       </c>
       <c r="C85" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>tidak ada balasan untuk kebaikan kecuali kebaikanpula</t>
+          <t>met alkahfi ya</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['tidak', 'ada', 'balasan', 'untuk', 'kebaikan', 'kecuali', 'kebaikanpula']</t>
+          <t>['met', 'alkahfi', 'ya']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['selamat', 'alkahfi', 'ya']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['balasan', 'kebaikan', 'kecuali', 'kebaikanpula']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['balas', 'baik', 'kecuali', 'kebaikanpula']</t>
+          <t>['selamat', 'alkahfi']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['selamat', 'alkahfi']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13190</v>
+        <v>28795</v>
       </c>
       <c r="C86" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>kita serahkan semua urusan samaallah</t>
+          <t>bulan infrastruktur saham wika pegangterus</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['kita', 'serahkan', 'semua', 'urusan', 'samaallah']</t>
+          <t>['bulan', 'infrastruktur', 'saham', 'wika', 'pegangterus']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['bulan', 'infrastruktur', 'saham', 'wika', 'pegangterus']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['serahkan', 'urusan', 'samaallah']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['serah', 'urus', 'samaallah']</t>
+          <t>['infrastruktur', 'saham', 'wika', 'pegangterus']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['infrastruktur', 'saham', 'wika', 'pegangterus']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13191</v>
+        <v>28796</v>
       </c>
       <c r="C87" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>mau ikut buka angkringan yusufmansur</t>
+          <t>the story of alwaaqiah surah kaya</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['mau', 'ikut', 'buka', 'angkringan', 'yusufmansur']</t>
+          <t>['the', 'story', 'of', 'alwaaqiah', 'surah', 'kaya']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['the', 'cerita', 'of', 'alwaaqiah', 'surah', 'kayak']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['buka', 'angkringan', 'yusufmansur']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['buka', 'angkring', 'yusufmansur']</t>
+          <t>['the', 'cerita', 'of', 'alwaaqiah', 'surah', 'kayak']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['the', 'cerita', 'of', 'alwaaqiah', 'surah', 'kayak']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13192</v>
+        <v>28797</v>
       </c>
       <c r="C88" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>bring angkringan to manhattan angkringanmendunia</t>
+          <t>kunci kesuksesan itu adalah kembali ke quran belajar bareng yusuf mansur silakan dibuka qurannya</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['bring', 'angkringan', 'to', 'manhattan', 'angkringanmendunia']</t>
+          <t>['kunci', 'kesuksesan', 'itu', 'adalah', 'kembali', 'ke', 'quran', 'belajar', 'bareng', 'yusuf', 'mansur', 'silakan', 'dibuka', 'qurannya']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kunci', 'kesuksesan', 'itu', 'adalah', 'kembali', 'ke', 'alquran', 'belajar', 'bareng', 'yusuf', 'mansur', 'silakan', 'dibuka', 'qurannya']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['bring', 'angkringan', 'to', 'manhattan', 'angkringanmendunia']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['bring', 'angkring', 'to', 'manhattan', 'angkringanmendunia']</t>
+          <t>['kunci', 'kesuksesan', 'alquran', 'belajar', 'bareng', 'yusuf', 'mansur', 'silakan', 'dibuka', 'qurannya']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['kunci', 'sukses', 'alquran', 'ajar', 'bareng', 'yusuf', 'mansur', 'sila', 'buka', 'quran']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13193</v>
+        <v>28798</v>
       </c>
       <c r="C89" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>amalan ibarat pisau yang mesti diasah</t>
+          <t>kegunaan membaca almulk</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['amalan', 'ibarat', 'pisau', 'yang', 'mesti', 'diasah']</t>
+          <t>['kegunaan', 'membaca', 'almulk']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['kegunaan', 'membaca', 'almulk']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['amalan', 'pisau', 'mesti', 'diasah']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['amal', 'pisau', 'mesti', 'asah']</t>
+          <t>['kegunaan', 'membaca', 'almulk']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['guna', 'baca', 'almulk']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13194</v>
+        <v>28799</v>
       </c>
       <c r="C90" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>silakan ke</t>
+          <t>waskita itu izin allah palingtinggi</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['silakan', 'ke']</t>
+          <t>['waskita', 'itu', 'izin', 'allah', 'palingtinggi']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['waskita', 'itu', 'izin', 'allah', 'palingtinggi']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['silakan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['sila']</t>
+          <t>['waskita', 'izin', 'allah', 'palingtinggi']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['waskita', 'izin', 'allah', 'palingtinggi']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13195</v>
+        <v>28800</v>
       </c>
       <c r="C91" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>silakan yang ketinggalan diskonan kemarenan sekarang bisa dimanfaatkan ini salah satu buku ustadz</t>
+          <t>amalanamalan penarik rezeki lagi covid kudu banyak ngelakuin ini</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['silakan', 'yang', 'ketinggalan', 'diskonan', 'kemarenan', 'sekarang', 'bisa', 'dimanfaatkan', 'ini', 'salah', 'satu', 'buku', 'ustadz']</t>
+          <t>['amalanamalan', 'penarik', 'rezeki', 'lagi', 'covid', 'kudu', 'banyak', 'ngelakuin', 'ini']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['amalanamalan', 'penarik', 'rezeki', 'lagi', 'covid', 'harus', 'banyak', 'melakukan', 'ini']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['silakan', 'ketinggalan', 'diskonan', 'kemarenan', 'dimanfaatkan', 'salah', 'buku', 'ustadz']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['sila', 'tinggal', 'diskon', 'kemarenan', 'manfaat', 'salah', 'buku', 'ustadz']</t>
+          <t>['amalanamalan', 'penarik', 'rezeki', 'covid']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['amalanamalan', 'tarik', 'rezeki', 'covid']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13196</v>
+        <v>28801</v>
       </c>
       <c r="C92" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>belajar bareng yusuf mansur doa awal tahunkekuatan percaya mimpi repetisiafirmasi dan visualisasi</t>
+          <t>laksanakan yang wajib hidupkan yang sunnah maka rezekimengalir</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['belajar', 'bareng', 'yusuf', 'mansur', 'doa', 'awal', 'tahunkekuatan', 'percaya', 'mimpi', 'repetisiafirmasi', 'dan', 'visualisasi']</t>
+          <t>['laksanakan', 'yang', 'wajib', 'hidupkan', 'yang', 'sunnah', 'maka', 'rezekimengalir']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['laksanakan', 'yang', 'wajib', 'hidupkan', 'yang', 'sunnah', 'maka', 'rezekimengalir']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['belajar', 'bareng', 'yusuf', 'mansur', 'doa', 'tahunkekuatan', 'percaya', 'mimpi', 'repetisiafirmasi', 'visualisasi']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['ajar', 'bareng', 'yusuf', 'mansur', 'doa', 'tahunkekuatan', 'percaya', 'mimpi', 'repetisiafirmasi', 'visualisasi']</t>
+          <t>['laksanakan', 'wajib', 'hidupkan', 'sunnah', 'rezekimengalir']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['laksana', 'wajib', 'hidup', 'sunnah', 'rezekimengalir']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13197</v>
+        <v>28802</v>
       </c>
       <c r="C93" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>shalat zuhur delapan rakaat untukmelesat</t>
+          <t>cegat shalat agar terwujud hajat dan impian</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['shalat', 'zuhur', 'delapan', 'rakaat', 'untukmelesat']</t>
+          <t>['cegat', 'shalat', 'agar', 'terwujud', 'hajat', 'dan', 'impian']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['cegat', 'salat', 'agar', 'terwujud', 'hajat', 'dan', 'impian']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['shalat', 'zuhur', 'delapan', 'rakaat', 'untukmelesat']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['shalat', 'zuhur', 'delapan', 'rakaat', 'untukmelesat']</t>
+          <t>['cegat', 'salat', 'terwujud', 'hajat', 'impian']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['cegat', 'salat', 'wujud', 'hajat', 'impi']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13198</v>
+        <v>28803</v>
       </c>
       <c r="C94" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>cara gampang urusan beres denganini</t>
+          <t>kebenarannya ya dicek pagi ini hehehe wallaahu alam namun ini penuh harapan jadi saya trs terang bnr banyak</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['cara', 'gampang', 'urusan', 'beres', 'denganini']</t>
+          <t>['kebenarannya', 'ya', 'dicek', 'pagi', 'ini', 'hehehe', 'wallaahu', 'alam', 'namun', 'ini', 'penuh', 'harapan', 'jadi', 'saya', 'trs', 'terang', 'bnr', 'banyak']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kebenarannya', 'ya', 'dicek', 'pagi', 'ini', 'hehe', 'wallaahu', 'alam', 'namun', 'ini', 'penuh', 'harapan', 'jadi', 'saya', 'terus', 'terang', 'benar', 'banyak']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['gampang', 'urusan', 'beres', 'denganini']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['gampang', 'urus', 'beres', 'denganini']</t>
+          <t>['kebenarannya', 'dicek', 'pagi', 'wallaahu', 'alam', 'penuh', 'harapan', 'terang']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['benar', 'cek', 'pagi', 'wallaahu', 'alam', 'penuh', 'harap', 'terang']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13199</v>
+        <v>28804</v>
       </c>
       <c r="C95" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>alkahfinya jangan sampe ketinggalan</t>
+          <t>mansurmology beli dan pegangin saham bumn</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['alkahfinya', 'jangan', 'sampe', 'ketinggalan']</t>
+          <t>['mansurmology', 'beli', 'dan', 'pegangin', 'saham', 'bumn']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['mansurmology', 'beli', 'dan', 'pegangi', 'saham', 'badan, usaha, milik, negara']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['alkahfinya', 'sampe', 'ketinggalan']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['alkahfinya', 'sampe', 'tinggal']</t>
+          <t>['mansurmology', 'beli', 'pegangi', 'saham', 'badan, usaha, milik, negara']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['mansurmology', 'beli', 'gang', 'saham', 'badan usaha milik negara']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13200</v>
+        <v>28805</v>
       </c>
       <c r="C96" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ubah hidup dengansholat</t>
+          <t>tidak ada balasan untuk kebaikan kecuali kebaikanpula</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['ubah', 'hidup', 'dengansholat']</t>
+          <t>['tidak', 'ada', 'balasan', 'untuk', 'kebaikan', 'kecuali', 'kebaikanpula']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['tidak', 'ada', 'balasan', 'untuk', 'kebaikan', 'kecuali', 'kebaikanpula']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['ubah', 'hidup', 'dengansholat']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['ubah', 'hidup', 'dengansholat']</t>
+          <t>['balasan', 'kebaikan', 'kecuali', 'kebaikanpula']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['balas', 'baik', 'kecuali', 'kebaikanpula']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13201</v>
+        <v>28806</v>
       </c>
       <c r="C97" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>dhuha pertama</t>
+          <t>kita serahkan semua urusan samaallah</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['dhuha', 'pertama']</t>
+          <t>['kita', 'serahkan', 'semua', 'urusan', 'samaallah']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kita', 'serahkan', 'semua', 'urusan', 'samaallah']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['dhuha']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['dhuha']</t>
+          <t>['serahkan', 'urusan', 'samaallah']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['serah', 'urus', 'samaallah']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13202</v>
+        <v>28807</v>
       </c>
       <c r="C98" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>filing gud never stres don lupa hepi mksh smua doanya ya saya amp smua pimpinan daqu dah smua sehat bener negati</t>
+          <t>mau ikut buka angkringan yusufmansur</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['filing', 'gud', 'never', 'stres', 'don', 'lupa', 'hepi', 'mksh', 'smua', 'doanya', 'ya', 'saya', 'amp', 'smua', 'pimpinan', 'daqu', 'dah', 'smua', 'sehat', 'bener', 'negati']</t>
+          <t>['mau', 'ikut', 'buka', 'angkringan', 'yusufmansur']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['mau', 'ikut', 'buka', 'angkringan', 'yusufmansur']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['filing', 'gud', 'never', 'stres', 'don', 'lupa', 'hepi', 'mksh', 'smua', 'doanya', 'smua', 'pimpinan', 'daqu', 'dah', 'smua', 'sehat', 'bener', 'negati']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['filing', 'gud', 'never', 'stres', 'don', 'lupa', 'hepi', 'mksh', 'smua', 'doa', 'smua', 'pimpin', 'daqu', 'dah', 'smua', 'sehat', 'bener', 'negati']</t>
+          <t>['buka', 'angkringan', 'yusufmansur']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['buka', 'angkring', 'yusufmansur']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4457,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13203</v>
+        <v>28808</v>
       </c>
       <c r="C99" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>dapet kiriman dari jamaah di perth trs dikirim ke saya oleh maasyaaallah doa yg sakit maqbuul loh</t>
+          <t>bring angkringan to manhattan angkringanmendunia</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['dapet', 'kiriman', 'dari', 'jamaah', 'di', 'perth', 'trs', 'dikirim', 'ke', 'saya', 'oleh', 'maasyaaallah', 'doa', 'yg', 'sakit', 'maqbuul', 'loh']</t>
+          <t>['bring', 'angkringan', 'to', 'manhattan', 'angkringanmendunia']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['bring', 'angkringan', 'to', 'manhattan', 'angkringanmendunia']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['dapet', 'kiriman', 'jamaah', 'perth', 'trs', 'dikirim', 'maasyaaallah', 'doa', 'sakit', 'maqbuul']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['dapet', 'kirim', 'jamaah', 'perth', 'trs', 'kirim', 'maasyaaallah', 'doa', 'sakit', 'maqbuul']</t>
+          <t>['bring', 'angkringan', 'to', 'manhattan', 'angkringanmendunia']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['bring', 'angkring', 'to', 'manhattan', 'angkringanmendunia']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4498,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13204</v>
+        <v>28809</v>
       </c>
       <c r="C100" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>salam yusuf mansur salam hahaha live every day dari istana buakakakaka</t>
+          <t>amalan ibarat pisau yang mesti diasah</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['salam', 'yusuf', 'mansur', 'salam', 'hahaha', 'live', 'every', 'day', 'dari', 'istana', 'buakakakaka']</t>
+          <t>['amalan', 'ibarat', 'pisau', 'yang', 'mesti', 'diasah']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['amalan', 'ibarat', 'pisau', 'yang', 'mesti', 'diasah']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['salam', 'yusuf', 'mansur', 'salam', 'hahaha', 'live', 'every', 'day', 'istana', 'buakakakaka']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['salam', 'yusuf', 'mansur', 'salam', 'hahaha', 'live', 'every', 'day', 'istana', 'buakakakaka']</t>
+          <t>['amalan', 'pisau', 'mesti', 'diasah']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['amal', 'pisau', 'mesti', 'asah']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4539,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13205</v>
+        <v>28810</v>
       </c>
       <c r="C101" t="n">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>buat yang ikut rekomendasi saya macam hr ini waskita maafin ya bukan rekomendasi tapi nyuruh huahahaha engga</t>
+          <t>silakan ke</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['buat', 'yang', 'ikut', 'rekomendasi', 'saya', 'macam', 'hr', 'ini', 'waskita', 'maafin', 'ya', 'bukan', 'rekomendasi', 'tapi', 'nyuruh', 'huahahaha', 'engga']</t>
+          <t>['silakan', 'ke']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['silakan', 'ke']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['rekomendasi', 'hr', 'waskita', 'maafin', 'rekomendasi', 'nyuruh', 'huahahaha', 'engga']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['rekomendasi', 'hr', 'waskita', 'maafin', 'rekomendasi', 'nyuruh', 'huahahaha', 'engga']</t>
+          <t>['silakan']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['sila']</t>
         </is>
       </c>
     </row>
